--- a/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F6547B-089F-4D6F-8A69-B4848DD83882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A503EE-1898-47B6-B5CF-C67C458B1EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -47,16 +48,40 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
   <si>
     <t>bioenergy</t>
   </si>
@@ -250,7 +275,73 @@
     <t>-CO2Captured</t>
   </si>
   <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>Unnamed: 14</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+  </si>
+  <si>
+    <t>Unnamed: 16</t>
+  </si>
+  <si>
+    <t>Unnamed: 17</t>
+  </si>
+  <si>
+    <t>Unnamed: 18</t>
+  </si>
+  <si>
+    <t>Unnamed: 19</t>
+  </si>
+  <si>
+    <t>Unnamed: 20</t>
+  </si>
+  <si>
+    <t>Unnamed: 21</t>
+  </si>
+  <si>
+    <t>Unnamed: 22</t>
+  </si>
+  <si>
+    <t>Unnamed: 23</t>
+  </si>
+  <si>
+    <t>Unnamed: 24</t>
+  </si>
+  <si>
+    <t>Unnamed: 25</t>
+  </si>
+  <si>
     <t>FRA</t>
+  </si>
+  <si>
+    <t>Electricity Trade Data (TWh)</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Export</t>
   </si>
 </sst>
 </file>
@@ -318,6 +409,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,14 +875,14 @@
       <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="4" cm="1">
+      <c r="Q4" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="Q4">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
-        <v>0.43129337356808434</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" cm="1">
+      <c r="S4" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="S4">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
-        <v>9.4315434766683762E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.45">
@@ -748,17 +905,17 @@
       <c r="P5" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="4" cm="1">
+      <c r="Q5" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="Q5">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
-        <v>0.29350540681363757</v>
-      </c>
-      <c r="R5" s="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="4" t="e" vm="2">
         <f>IF(Q5&gt;0.7,Q5,0.7)</f>
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="4" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="S5">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
-        <v>5.1995525945360881E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
@@ -868,9 +1025,9 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="e" vm="2">
         <f>-Q4*$Q$1*8.76</f>
-        <v>-4.1559429477020604</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8">
@@ -888,9 +1045,9 @@
       <c r="AF8">
         <v>1</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="3" t="e" vm="2">
         <f>-S4*$S$1*8.76</f>
-        <v>-0.74358288770053482</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -912,13 +1069,13 @@
       <c r="X9">
         <v>1</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="e" vm="2">
         <f>-Q5*$Q$1*8.76</f>
-        <v>-2.8282181000562119</v>
-      </c>
-      <c r="Z9" s="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="3" t="e" vm="2">
         <f>-R5*$Q$1*8.76</f>
-        <v>-6.7451999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -935,9 +1092,9 @@
       <c r="AF9">
         <v>1</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="3" t="e" vm="2">
         <f>-S5*$S$1*8.76</f>
-        <v>-0.40993272655322516</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1109,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -1153,10 +1310,64 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1182,7 +1393,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1199,7 +1410,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1216,7 +1427,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1233,7 +1444,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1259,7 +1470,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1285,7 +1496,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1311,7 +1522,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1337,7 +1548,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1363,1365 +1574,1978 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E14">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G14">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H14">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="I14">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="J14">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="K14">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="L14">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="M14">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="N14">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="O14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="P14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="Q14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="R14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="S14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="T14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="U14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="V14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="X14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Y14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Z14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15">
         <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.65507145273127021</v>
-      </c>
-      <c r="E15">
-        <v>0.70855841068035541</v>
-      </c>
-      <c r="F15">
-        <v>0.6572836882190054</v>
-      </c>
-      <c r="G15">
-        <v>0.66795828727795103</v>
-      </c>
-      <c r="H15">
-        <v>0.62441319864710465</v>
-      </c>
-      <c r="I15">
-        <v>0.61153310682623163</v>
-      </c>
-      <c r="J15">
-        <v>0.57753151026969707</v>
-      </c>
-      <c r="K15">
-        <v>0.59143141855243575</v>
-      </c>
-      <c r="L15">
-        <v>0.57563238385156201</v>
-      </c>
-      <c r="M15">
-        <v>0.57671093237261395</v>
-      </c>
-      <c r="N15">
-        <v>0.54659134266267884</v>
-      </c>
-      <c r="O15">
-        <v>0.48959346018435024</v>
-      </c>
-      <c r="P15">
-        <v>0.47204644576248633</v>
-      </c>
-      <c r="Q15">
-        <v>0.46064340026918904</v>
-      </c>
-      <c r="R15">
-        <v>0.46706407389769605</v>
-      </c>
-      <c r="S15">
-        <v>0.48648885924182372</v>
-      </c>
-      <c r="T15">
-        <v>0.51708852636124003</v>
-      </c>
-      <c r="U15">
-        <v>0.51871573462922282</v>
-      </c>
-      <c r="V15">
-        <v>0.4969645862171681</v>
-      </c>
-      <c r="W15">
-        <v>0.49137811601855713</v>
-      </c>
-      <c r="X15">
-        <v>0.51787948529646377</v>
-      </c>
-      <c r="Y15">
-        <v>0.5341149748927575</v>
-      </c>
-      <c r="Z15">
-        <v>0.54240480484752174</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <v>69.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>68.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20">
+        <v>77.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22">
+        <v>66.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24">
+        <v>61.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26">
+        <v>60.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>63.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30">
+        <v>56.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32">
+        <v>47.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38">
+        <v>56.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42">
+        <v>48.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q44">
+        <v>67.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="R46">
+        <v>64.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="S48">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="T50">
+        <v>40.130000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="U52">
+        <v>62.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="V54">
+        <v>57.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="W56">
+        <v>45.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="X58">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y59">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z62">
+        <v>50.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>2000</v>
+      </c>
+      <c r="E66">
+        <v>2001</v>
+      </c>
+      <c r="F66">
+        <v>2002</v>
+      </c>
+      <c r="G66">
+        <v>2003</v>
+      </c>
+      <c r="H66">
+        <v>2004</v>
+      </c>
+      <c r="I66">
+        <v>2005</v>
+      </c>
+      <c r="J66">
+        <v>2006</v>
+      </c>
+      <c r="K66">
+        <v>2007</v>
+      </c>
+      <c r="L66">
+        <v>2008</v>
+      </c>
+      <c r="M66">
+        <v>2009</v>
+      </c>
+      <c r="N66">
+        <v>2010</v>
+      </c>
+      <c r="O66">
+        <v>2011</v>
+      </c>
+      <c r="P66">
+        <v>2012</v>
+      </c>
+      <c r="Q66">
+        <v>2013</v>
+      </c>
+      <c r="R66">
+        <v>2014</v>
+      </c>
+      <c r="S66">
+        <v>2015</v>
+      </c>
+      <c r="T66">
+        <v>2016</v>
+      </c>
+      <c r="U66">
+        <v>2017</v>
+      </c>
+      <c r="V66">
+        <v>2018</v>
+      </c>
+      <c r="W66">
+        <v>2019</v>
+      </c>
+      <c r="X66">
+        <v>2020</v>
+      </c>
+      <c r="Y66">
+        <v>2021</v>
+      </c>
+      <c r="Z66">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0.65507145273127021</v>
+      </c>
+      <c r="E67">
+        <v>0.70855841068035541</v>
+      </c>
+      <c r="F67">
+        <v>0.6572836882190054</v>
+      </c>
+      <c r="G67">
+        <v>0.66795828727795103</v>
+      </c>
+      <c r="H67">
+        <v>0.62441319864710465</v>
+      </c>
+      <c r="I67">
+        <v>0.61153310682623163</v>
+      </c>
+      <c r="J67">
+        <v>0.57753151026969707</v>
+      </c>
+      <c r="K67">
+        <v>0.59143141855243575</v>
+      </c>
+      <c r="L67">
+        <v>0.57563238385156201</v>
+      </c>
+      <c r="M67">
+        <v>0.57671093237261395</v>
+      </c>
+      <c r="N67">
+        <v>0.54659134266267884</v>
+      </c>
+      <c r="O67">
+        <v>0.48959346018435024</v>
+      </c>
+      <c r="P67">
+        <v>0.47204644576248633</v>
+      </c>
+      <c r="Q67">
+        <v>0.46064340026918904</v>
+      </c>
+      <c r="R67">
+        <v>0.46706407389769605</v>
+      </c>
+      <c r="S67">
+        <v>0.48648885924182372</v>
+      </c>
+      <c r="T67">
+        <v>0.51708852636124003</v>
+      </c>
+      <c r="U67">
+        <v>0.51871573462922282</v>
+      </c>
+      <c r="V67">
+        <v>0.4969645862171681</v>
+      </c>
+      <c r="W67">
+        <v>0.49137811601855713</v>
+      </c>
+      <c r="X67">
+        <v>0.51787948529646377</v>
+      </c>
+      <c r="Y67">
+        <v>0.5341149748927575</v>
+      </c>
+      <c r="Z67">
+        <v>0.54240480484752174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
         <v>12</v>
       </c>
-      <c r="O16">
+      <c r="O68">
         <v>0.47682418559038953</v>
       </c>
-      <c r="P16">
+      <c r="P68">
         <v>0.47787079316759684</v>
       </c>
-      <c r="Q16">
+      <c r="Q68">
         <v>0.68608066971080672</v>
       </c>
-      <c r="R16">
+      <c r="R68">
         <v>0.63251902587519038</v>
       </c>
-      <c r="S16">
+      <c r="S68">
         <v>0.71154709387818282</v>
       </c>
-      <c r="T16">
+      <c r="T68">
         <v>0.68991475465456553</v>
       </c>
-      <c r="U16">
+      <c r="U68">
         <v>0.94102096498296517</v>
       </c>
-      <c r="V16">
+      <c r="V68">
         <v>0.89751473769031775</v>
       </c>
-      <c r="W16">
+      <c r="W68">
         <v>0.90819514539774093</v>
       </c>
-      <c r="X16">
+      <c r="X68">
         <v>0.94150868710858548</v>
       </c>
-      <c r="Y16">
+      <c r="Y68">
         <v>0.70902073879299388</v>
       </c>
-      <c r="Z16">
+      <c r="Z68">
         <v>0.80293905593960735</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D69">
         <v>0.32282078015860649</v>
       </c>
-      <c r="E17">
+      <c r="E69">
         <v>0.35595105709784614</v>
       </c>
-      <c r="F17">
+      <c r="F69">
         <v>0.29729053112042492</v>
       </c>
-      <c r="G17">
+      <c r="G69">
         <v>0.29083409798800802</v>
       </c>
-      <c r="H17">
+      <c r="H69">
         <v>0.29496174796927549</v>
       </c>
-      <c r="I17">
+      <c r="I69">
         <v>0.25589254143295048</v>
       </c>
-      <c r="J17">
+      <c r="J69">
         <v>0.28033326413732557</v>
       </c>
-      <c r="K17">
+      <c r="K69">
         <v>0.28707591471688315</v>
       </c>
-      <c r="L17">
+      <c r="L69">
         <v>0.31068978946717857</v>
       </c>
-      <c r="M17">
+      <c r="M69">
         <v>0.28061596014311618</v>
       </c>
-      <c r="N17">
+      <c r="N69">
         <v>0.30318205573739576</v>
       </c>
-      <c r="O17">
+      <c r="O69">
         <v>0.22657361497385858</v>
       </c>
-      <c r="P17">
+      <c r="P69">
         <v>0.28814545753169268</v>
       </c>
-      <c r="Q17">
+      <c r="Q69">
         <v>0.34306621642304425</v>
       </c>
-      <c r="R17">
+      <c r="R69">
         <v>0.31112192879741829</v>
       </c>
-      <c r="S17">
+      <c r="S69">
         <v>0.27034926347874866</v>
       </c>
-      <c r="T17">
+      <c r="T69">
         <v>0.2926659088325631</v>
       </c>
-      <c r="U17">
+      <c r="U69">
         <v>0.24483427383365902</v>
       </c>
-      <c r="V17">
+      <c r="V69">
         <v>0.31269804580294608</v>
       </c>
-      <c r="W17">
+      <c r="W69">
         <v>0.27171404276150501</v>
       </c>
-      <c r="X17">
+      <c r="X69">
         <v>0.29510118752862963</v>
       </c>
-      <c r="Y17">
+      <c r="Y69">
         <v>0.28086313296037818</v>
       </c>
-      <c r="Z17">
+      <c r="Z69">
         <v>0.22444913497305133</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="D70">
         <v>0.75008977690880807</v>
       </c>
-      <c r="E18">
+      <c r="E70">
         <v>0.76077483705554294</v>
       </c>
-      <c r="F18">
+      <c r="F70">
         <v>0.7879893080553233</v>
       </c>
-      <c r="G18">
+      <c r="G70">
         <v>0.79463498604871241</v>
       </c>
-      <c r="H18">
+      <c r="H70">
         <v>0.8075543128788194</v>
       </c>
-      <c r="I18">
+      <c r="I70">
         <v>0.8148025038364537</v>
       </c>
-      <c r="J18">
+      <c r="J70">
         <v>0.81238802824322898</v>
       </c>
-      <c r="K18">
+      <c r="K70">
         <v>0.79351072691234414</v>
       </c>
-      <c r="L18">
+      <c r="L70">
         <v>0.79300004186534656</v>
       </c>
-      <c r="M18">
+      <c r="M70">
         <v>0.74090790403508877</v>
       </c>
-      <c r="N18">
+      <c r="N70">
         <v>0.77487600783192179</v>
       </c>
-      <c r="O18">
+      <c r="O70">
         <v>0.79995067617954385</v>
       </c>
-      <c r="P18">
+      <c r="P70">
         <v>0.76924331867198725</v>
       </c>
-      <c r="Q18">
+      <c r="Q70">
         <v>0.76613068307985177</v>
       </c>
-      <c r="R18">
+      <c r="R70">
         <v>0.78926613163964765</v>
       </c>
-      <c r="S18">
+      <c r="S70">
         <v>0.79098180387357531</v>
       </c>
-      <c r="T18">
+      <c r="T70">
         <v>0.72908096795262656</v>
       </c>
-      <c r="U18">
+      <c r="U70">
         <v>0.72033559980239359</v>
       </c>
-      <c r="V18">
+      <c r="V70">
         <v>0.74670483535098608</v>
       </c>
-      <c r="W18">
+      <c r="W70">
         <v>0.72151541141096831</v>
       </c>
-      <c r="X18">
+      <c r="X70">
         <v>0.65784820512248465</v>
       </c>
-      <c r="Y18">
+      <c r="Y70">
         <v>0.70531080719289641</v>
       </c>
-      <c r="Z18">
+      <c r="Z70">
         <v>0.54796572739577298</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="D71">
         <v>3.6927707854271789E-2</v>
       </c>
-      <c r="E19">
+      <c r="E71">
         <v>3.2106164383561647E-2</v>
       </c>
-      <c r="F19">
+      <c r="F71">
         <v>3.0674905885911357E-2</v>
       </c>
-      <c r="G19">
+      <c r="G71">
         <v>3.723476881607915E-2</v>
       </c>
-      <c r="H19">
+      <c r="H71">
         <v>3.5518030365180489E-2</v>
       </c>
-      <c r="I19">
+      <c r="I71">
         <v>4.2416457904387937E-2</v>
       </c>
-      <c r="J19">
+      <c r="J71">
         <v>3.9887577105863672E-2</v>
       </c>
-      <c r="K19">
+      <c r="K71">
         <v>3.815298856026976E-2</v>
       </c>
-      <c r="L19">
+      <c r="L71">
         <v>3.4664567786608445E-2</v>
       </c>
-      <c r="M19">
+      <c r="M71">
         <v>3.0554855784857463E-2</v>
       </c>
-      <c r="N19">
+      <c r="N71">
         <v>3.1924978980746692E-2</v>
       </c>
-      <c r="O19">
+      <c r="O71">
         <v>4.2420421651444461E-2</v>
       </c>
-      <c r="P19">
+      <c r="P71">
         <v>4.4328624511802063E-2</v>
       </c>
-      <c r="Q19">
+      <c r="Q71">
         <v>4.3455693252832557E-2</v>
       </c>
-      <c r="R19">
+      <c r="R71">
         <v>4.654041069231591E-2</v>
       </c>
-      <c r="S19">
+      <c r="S71">
         <v>4.4431352478279694E-2</v>
       </c>
-      <c r="T19">
+      <c r="T71">
         <v>4.8236179261924875E-2</v>
       </c>
-      <c r="U19">
+      <c r="U71">
         <v>5.73174118940072E-2</v>
       </c>
-      <c r="V19">
+      <c r="V71">
         <v>5.2895430041181767E-2</v>
       </c>
-      <c r="W19">
+      <c r="W71">
         <v>5.3900035971085496E-2</v>
       </c>
-      <c r="X19">
+      <c r="X71">
         <v>5.1096165415330838E-2</v>
       </c>
-      <c r="Y19">
+      <c r="Y71">
         <v>5.0187342643328442E-2</v>
       </c>
-      <c r="Z19">
+      <c r="Z71">
         <v>4.9969373471372251E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="D72">
         <v>8.51761252446184E-2</v>
       </c>
-      <c r="E20">
+      <c r="E72">
         <v>0.10047292889758642</v>
       </c>
-      <c r="F20">
+      <c r="F72">
         <v>0.10136986301369863</v>
       </c>
-      <c r="G20">
+      <c r="G72">
         <v>9.8515981735159838E-2</v>
       </c>
-      <c r="H20">
+      <c r="H72">
         <v>8.7671232876712343E-2</v>
       </c>
-      <c r="I20">
+      <c r="I72">
         <v>9.2211099402880234E-2</v>
       </c>
-      <c r="J20">
+      <c r="J72">
         <v>9.2108066971080677E-2</v>
       </c>
-      <c r="K20">
+      <c r="K72">
         <v>7.7151387425360041E-2</v>
       </c>
-      <c r="L20">
+      <c r="L72">
         <v>5.9492009132420094E-2</v>
       </c>
-      <c r="M20">
+      <c r="M72">
         <v>7.1695679409195065E-2</v>
       </c>
-      <c r="N20">
+      <c r="N72">
         <v>6.7793348379082907E-2</v>
       </c>
-      <c r="O20">
+      <c r="O72">
         <v>8.9144951765142907E-2</v>
       </c>
-      <c r="P20">
+      <c r="P72">
         <v>0.11753105059980719</v>
       </c>
-      <c r="Q20">
+      <c r="Q72">
         <v>0.11489224215382465</v>
       </c>
-      <c r="R20">
+      <c r="R72">
         <v>0.12448158526861221</v>
       </c>
-      <c r="S20">
+      <c r="S72">
         <v>0.12979460687322764</v>
       </c>
-      <c r="T20">
+      <c r="T72">
         <v>0.13506891572810997</v>
       </c>
-      <c r="U20">
+      <c r="U72">
         <v>0.13509952073241918</v>
       </c>
-      <c r="V20">
+      <c r="V72">
         <v>0.13660941729581461</v>
       </c>
-      <c r="W20">
+      <c r="W72">
         <v>0.13869028839168057</v>
       </c>
-      <c r="X20">
+      <c r="X72">
         <v>0.1352356616976321</v>
       </c>
-      <c r="Y20">
+      <c r="Y72">
         <v>0.13037828662205719</v>
       </c>
-      <c r="Z20">
+      <c r="Z72">
         <v>0.15496417492770403</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="D73">
         <v>0.14467676039413602</v>
       </c>
-      <c r="E21">
+      <c r="E73">
         <v>0.22699598726995987</v>
       </c>
-      <c r="F21">
+      <c r="F73">
         <v>0.21969922572960091</v>
       </c>
-      <c r="G21">
+      <c r="G73">
         <v>0.20304448912906872</v>
       </c>
-      <c r="H21">
+      <c r="H73">
         <v>0.18967947246243719</v>
       </c>
-      <c r="I21">
+      <c r="I73">
         <v>0.15924988419032496</v>
       </c>
-      <c r="J21">
+      <c r="J73">
         <v>0.17645394336864709</v>
       </c>
-      <c r="K21">
+      <c r="K73">
         <v>0.20900784040654269</v>
       </c>
-      <c r="L21">
+      <c r="L73">
         <v>0.19101497872545981</v>
       </c>
-      <c r="M21">
+      <c r="M73">
         <v>0.19710765174028208</v>
       </c>
-      <c r="N21">
+      <c r="N73">
         <v>0.19202855734949736</v>
       </c>
-      <c r="O21">
+      <c r="O73">
         <v>0.20897927349870182</v>
       </c>
-      <c r="P21">
+      <c r="P73">
         <v>0.22776141636182795</v>
       </c>
-      <c r="Q21">
+      <c r="Q73">
         <v>0.2257468487267531</v>
       </c>
-      <c r="R21">
+      <c r="R73">
         <v>0.21492394513606378</v>
       </c>
-      <c r="S21">
+      <c r="S73">
         <v>0.23744797980775009</v>
       </c>
-      <c r="T21">
+      <c r="T73">
         <v>0.21101790768326553</v>
       </c>
-      <c r="U21">
+      <c r="U73">
         <v>0.20810602325113201</v>
       </c>
-      <c r="V21">
+      <c r="V73">
         <v>0.21910392366842035</v>
       </c>
-      <c r="W21">
+      <c r="W73">
         <v>0.24129166336449459</v>
       </c>
-      <c r="X21">
+      <c r="X73">
         <v>0.26069700487040792</v>
       </c>
-      <c r="Y21">
+      <c r="Y73">
         <v>0.22841616489062896</v>
       </c>
-      <c r="Z21">
+      <c r="Z73">
         <v>0.20822393273037404</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D25">
+      <c r="D77">
         <v>2000</v>
       </c>
-      <c r="E25">
+      <c r="E77">
         <v>2001</v>
       </c>
-      <c r="F25">
+      <c r="F77">
         <v>2002</v>
       </c>
-      <c r="G25">
+      <c r="G77">
         <v>2003</v>
       </c>
-      <c r="H25">
+      <c r="H77">
         <v>2004</v>
       </c>
-      <c r="I25">
+      <c r="I77">
         <v>2005</v>
       </c>
-      <c r="J25">
+      <c r="J77">
         <v>2006</v>
       </c>
-      <c r="K25">
+      <c r="K77">
         <v>2007</v>
       </c>
-      <c r="L25">
+      <c r="L77">
         <v>2008</v>
       </c>
-      <c r="M25">
+      <c r="M77">
         <v>2009</v>
       </c>
-      <c r="N25">
+      <c r="N77">
         <v>2010</v>
       </c>
-      <c r="O25">
+      <c r="O77">
         <v>2011</v>
       </c>
-      <c r="P25">
+      <c r="P77">
         <v>2012</v>
       </c>
-      <c r="Q25">
+      <c r="Q77">
         <v>2013</v>
       </c>
-      <c r="R25">
+      <c r="R77">
         <v>2014</v>
       </c>
-      <c r="S25">
+      <c r="S77">
         <v>2015</v>
       </c>
-      <c r="T25">
+      <c r="T77">
         <v>2016</v>
       </c>
-      <c r="U25">
+      <c r="U77">
         <v>2017</v>
       </c>
-      <c r="V25">
+      <c r="V77">
         <v>2018</v>
       </c>
-      <c r="W25">
+      <c r="W77">
         <v>2019</v>
       </c>
-      <c r="X25">
+      <c r="X77">
         <v>2020</v>
       </c>
-      <c r="Y25">
+      <c r="Y77">
         <v>2021</v>
       </c>
-      <c r="Z25">
+      <c r="Z77">
         <v>2022</v>
       </c>
-      <c r="AA25">
+      <c r="AA77">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D78">
         <v>0.52511415525114158</v>
       </c>
-      <c r="E26">
+      <c r="E78">
         <v>0.56736863627070133</v>
       </c>
-      <c r="F26">
+      <c r="F78">
         <v>0.53729071537290718</v>
       </c>
-      <c r="G26">
+      <c r="G78">
         <v>0.55150329122931863</v>
       </c>
-      <c r="H26">
+      <c r="H78">
         <v>0.5198877702591187</v>
       </c>
-      <c r="I26">
+      <c r="I78">
         <v>0.52592954990215257</v>
       </c>
-      <c r="J26">
+      <c r="J78">
         <v>0.4981320049813201</v>
       </c>
-      <c r="K26">
+      <c r="K78">
         <v>0.51248421257165067</v>
       </c>
-      <c r="L26">
+      <c r="L78">
         <v>0.50183100501831013</v>
       </c>
-      <c r="M26">
+      <c r="M78">
         <v>0.50272216368106781</v>
       </c>
-      <c r="N26">
+      <c r="N78">
         <v>0.4926700312424897</v>
       </c>
-      <c r="O26">
+      <c r="O78">
         <v>0.45499021526418787</v>
       </c>
-      <c r="P26">
+      <c r="P78">
         <v>0.43923311863074177</v>
       </c>
-      <c r="Q26">
+      <c r="Q78">
         <v>0.43017039759438686</v>
       </c>
-      <c r="R26">
+      <c r="R78">
         <v>0.43983346763362885</v>
       </c>
-      <c r="S26">
+      <c r="S78">
         <v>0.4585558393313211</v>
       </c>
-      <c r="T26">
+      <c r="T78">
         <v>0.48786349435231918</v>
       </c>
-      <c r="U26">
+      <c r="U78">
         <v>0.49350193185809621</v>
       </c>
-      <c r="V26">
+      <c r="V78">
         <v>0.47511838322340605</v>
       </c>
-      <c r="W26">
+      <c r="W78">
         <v>0.47140003261578606</v>
       </c>
-      <c r="X26">
+      <c r="X78">
         <v>0.49520125147979022</v>
       </c>
-      <c r="Y26">
+      <c r="Y78">
         <v>0.51042986743910046</v>
       </c>
-      <c r="Z26">
+      <c r="Z78">
         <v>0.51743733923550872</v>
       </c>
-      <c r="AA26">
+      <c r="AA78">
         <v>0.47840997366376781</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D79">
         <v>0.36692759295499022</v>
       </c>
-      <c r="E27">
+      <c r="E79">
         <v>0.27832137421178516</v>
       </c>
-      <c r="F27">
+      <c r="F79">
         <v>0.3215372907153729</v>
       </c>
-      <c r="G27">
+      <c r="G79">
         <v>0.35687105892585347</v>
       </c>
-      <c r="H27">
+      <c r="H79">
         <v>0.32922644619167279</v>
       </c>
-      <c r="I27">
+      <c r="I79">
         <v>0.40678898431400384</v>
       </c>
-      <c r="J27">
+      <c r="J79">
         <v>0.34701377139842454</v>
       </c>
-      <c r="K27">
+      <c r="K79">
         <v>0.37066346486201313</v>
       </c>
-      <c r="L27">
+      <c r="L79">
         <v>0.3450091862810224</v>
       </c>
-      <c r="M27">
+      <c r="M79">
         <v>0.32421288233780388</v>
       </c>
-      <c r="N27">
+      <c r="N79">
         <v>0.34949759720401924</v>
       </c>
-      <c r="O27">
+      <c r="O79">
         <v>0.26017821983638251</v>
       </c>
-      <c r="P27">
+      <c r="P79">
         <v>0.31009768221490086</v>
       </c>
-      <c r="Q27">
+      <c r="Q79">
         <v>0.43129337356808434</v>
       </c>
-      <c r="R27">
+      <c r="R79">
         <v>0.2216186427334278</v>
       </c>
-      <c r="S27">
+      <c r="S79">
         <v>0.36291602568798381</v>
       </c>
-      <c r="T27">
+      <c r="T79">
         <v>0.31224818694601131</v>
       </c>
-      <c r="U27">
+      <c r="U79">
         <v>0.3909969965570288</v>
       </c>
-      <c r="V27">
+      <c r="V79">
         <v>0.25364442165409129</v>
       </c>
-      <c r="W27">
+      <c r="W79">
         <v>0.11110297169926502</v>
       </c>
-      <c r="X27">
+      <c r="X79">
         <v>9.4315434766683762E-2</v>
       </c>
-      <c r="Y27">
+      <c r="Y79">
         <v>0.19967992482638128</v>
       </c>
-      <c r="Z27">
+      <c r="Z79">
         <v>0.19692917826411252</v>
       </c>
-      <c r="AA27">
+      <c r="AA79">
         <v>9.8237188233367925E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
         <v>2</v>
       </c>
-      <c r="D28">
+      <c r="D80">
         <v>5.1995525945360881E-2</v>
       </c>
-      <c r="E28">
+      <c r="E80">
         <v>6.6085290592071855E-2</v>
       </c>
-      <c r="F28">
+      <c r="F80">
         <v>7.7927609196221478E-2</v>
       </c>
-      <c r="G28">
+      <c r="G80">
         <v>8.3409551663971043E-2</v>
       </c>
-      <c r="H28">
+      <c r="H80">
         <v>9.1821476367202157E-2</v>
       </c>
-      <c r="I28">
+      <c r="I80">
         <v>0.10347982883440537</v>
       </c>
-      <c r="J28">
+      <c r="J80">
         <v>0.10081242957955287</v>
       </c>
-      <c r="K28">
+      <c r="K80">
         <v>0.10300672846133523</v>
       </c>
-      <c r="L28">
+      <c r="L80">
         <v>0.10308365228960664</v>
       </c>
-      <c r="M28">
+      <c r="M80">
         <v>9.0634494515949904E-2</v>
       </c>
-      <c r="N28">
+      <c r="N80">
         <v>0.1003822637721424</v>
       </c>
-      <c r="O28">
+      <c r="O80">
         <v>0.12589522648333523</v>
       </c>
-      <c r="P28">
+      <c r="P80">
         <v>9.3789525585782574E-2</v>
       </c>
-      <c r="Q28">
+      <c r="Q80">
         <v>8.2261562245029424E-2</v>
       </c>
-      <c r="R28">
+      <c r="R80">
         <v>6.3254025474645523E-2</v>
       </c>
-      <c r="S28">
+      <c r="S80">
         <v>0.10199670368268894</v>
       </c>
-      <c r="T28">
+      <c r="T80">
         <v>0.17702922981907276</v>
       </c>
-      <c r="U28">
+      <c r="U80">
         <v>0.23684875364922525</v>
       </c>
-      <c r="V28">
+      <c r="V80">
         <v>0.18576779571732707</v>
       </c>
-      <c r="W28">
+      <c r="W80">
         <v>0.26227018833281296</v>
       </c>
-      <c r="X28">
+      <c r="X80">
         <v>0.23139577934098482</v>
       </c>
-      <c r="Y28">
+      <c r="Y80">
         <v>0.22030309046390048</v>
       </c>
-      <c r="Z28">
+      <c r="Z80">
         <v>0.29350540681363757</v>
       </c>
-      <c r="AA28">
+      <c r="AA80">
         <v>0.19394051585832409</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
         <v>13</v>
       </c>
-      <c r="D29">
+      <c r="D81">
         <v>0.31738099437552669</v>
       </c>
-      <c r="E29">
+      <c r="E81">
         <v>0.35548689270581235</v>
       </c>
-      <c r="F29">
+      <c r="F81">
         <v>0.28699663480848048</v>
       </c>
-      <c r="G29">
+      <c r="G81">
         <v>0.27941970349842243</v>
       </c>
-      <c r="H29">
+      <c r="H81">
         <v>0.28411538491662558</v>
       </c>
-      <c r="I29">
+      <c r="I81">
         <v>0.24533837514948323</v>
       </c>
-      <c r="J29">
+      <c r="J81">
         <v>0.26841646026771221</v>
       </c>
-      <c r="K29">
+      <c r="K81">
         <v>0.27372815894713171</v>
       </c>
-      <c r="L29">
+      <c r="L81">
         <v>0.30441400304414001</v>
       </c>
-      <c r="M29">
+      <c r="M81">
         <v>0.27070405495063032</v>
       </c>
-      <c r="N29">
+      <c r="N81">
         <v>0.29577905884263395</v>
       </c>
-      <c r="O29">
+      <c r="O81">
         <v>0.21911293274085661</v>
       </c>
-      <c r="P29">
+      <c r="P81">
         <v>0.2863693365114921</v>
       </c>
-      <c r="Q29">
+      <c r="Q81">
         <v>0.34438110998743526</v>
       </c>
-      <c r="R29">
+      <c r="R81">
         <v>0.30586892291163043</v>
       </c>
-      <c r="S29">
+      <c r="S81">
         <v>0.26626640442588823</v>
       </c>
-      <c r="T29">
+      <c r="T81">
         <v>0.29071601002310821</v>
       </c>
-      <c r="U29">
+      <c r="U81">
         <v>0.23802179137104362</v>
       </c>
-      <c r="V29">
+      <c r="V81">
         <v>0.30969368340943682</v>
       </c>
-      <c r="W29">
+      <c r="W81">
         <v>0.2691207681220279</v>
       </c>
-      <c r="X29">
+      <c r="X81">
         <v>0.29488143495459235</v>
       </c>
-      <c r="Y29">
+      <c r="Y81">
         <v>0.28054147044762406</v>
       </c>
-      <c r="Z29">
+      <c r="Z81">
         <v>0.21437075214370757</v>
       </c>
-      <c r="AA29">
+      <c r="AA81">
         <v>0.25152932097013991</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="D30">
+      <c r="D82">
         <v>0.75012178005582386</v>
       </c>
-      <c r="E30">
+      <c r="E82">
         <v>0.76081818851986283</v>
       </c>
-      <c r="F30">
+      <c r="F82">
         <v>0.78802667122782466</v>
       </c>
-      <c r="G30">
+      <c r="G82">
         <v>0.79467261081130947</v>
       </c>
-      <c r="H30">
+      <c r="H82">
         <v>0.80759074765924088</v>
       </c>
-      <c r="I30">
+      <c r="I82">
         <v>0.81480430837725581</v>
       </c>
-      <c r="J30">
+      <c r="J82">
         <v>0.81238622370242686</v>
       </c>
-      <c r="K30">
+      <c r="K82">
         <v>0.79351072691234414</v>
       </c>
-      <c r="L30">
+      <c r="L82">
         <v>0.79300545548775292</v>
       </c>
-      <c r="M30">
+      <c r="M82">
         <v>0.7409151370622481</v>
       </c>
-      <c r="N30">
+      <c r="N82">
         <v>0.77487419957513193</v>
       </c>
-      <c r="O30">
+      <c r="O82">
         <v>0.79995472124998268</v>
       </c>
-      <c r="P30">
+      <c r="P82">
         <v>0.7692505209587811</v>
       </c>
-      <c r="Q30">
+      <c r="Q82">
         <v>0.76612223671238655</v>
       </c>
-      <c r="R30">
+      <c r="R82">
         <v>0.78926792362212639</v>
       </c>
-      <c r="S30">
+      <c r="S82">
         <v>0.79098576757245864</v>
       </c>
-      <c r="T30">
+      <c r="T82">
         <v>0.72908913765680294</v>
       </c>
-      <c r="U30">
+      <c r="U82">
         <v>0.72033717479405757</v>
       </c>
-      <c r="V30">
+      <c r="V82">
         <v>0.74670155878968303</v>
       </c>
-      <c r="W30">
+      <c r="W82">
         <v>0.72151254170744272</v>
       </c>
-      <c r="X30">
+      <c r="X82">
         <v>0.65784287477875458</v>
       </c>
-      <c r="Y30">
+      <c r="Y82">
         <v>0.70530840509868675</v>
       </c>
-      <c r="Z30">
+      <c r="Z82">
         <v>0.54796379753989866</v>
       </c>
-      <c r="AA30">
+      <c r="AA82">
         <v>0.62404250888700497</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D83">
         <v>1.4347239518472397</v>
       </c>
-      <c r="E31">
+      <c r="E83">
         <v>1.2712743877127439</v>
       </c>
-      <c r="F31">
+      <c r="F83">
         <v>1.266085512660855</v>
       </c>
-      <c r="G31">
+      <c r="G83">
         <v>1.4217517642175177</v>
       </c>
-      <c r="H31">
+      <c r="H83">
         <v>1.2681159420289856</v>
       </c>
-      <c r="I31">
+      <c r="I83">
         <v>1.4951856263648997</v>
       </c>
-      <c r="J31">
+      <c r="J83">
         <v>1.4331447290053603</v>
       </c>
-      <c r="K31">
+      <c r="K83">
         <v>1.2480242360379346</v>
       </c>
-      <c r="L31">
+      <c r="L83">
         <v>0.7913735653461681</v>
       </c>
-      <c r="M31">
+      <c r="M83">
         <v>0.59863557295064151</v>
       </c>
-      <c r="N31">
+      <c r="N83">
         <v>0.66634809387278326</v>
       </c>
-      <c r="O31">
+      <c r="O83">
         <v>0.80505999787618143</v>
       </c>
-      <c r="P31">
+      <c r="P83">
         <v>0.84355421047042589</v>
       </c>
-      <c r="Q31">
+      <c r="Q83">
         <v>0.75727407879367103</v>
       </c>
-      <c r="R31">
+      <c r="R83">
         <v>0.69974083672713816</v>
       </c>
-      <c r="S31">
+      <c r="S83">
         <v>0.71331932062525671</v>
       </c>
-      <c r="T31">
+      <c r="T83">
         <v>0.68855548307603109</v>
       </c>
-      <c r="U31">
+      <c r="U83">
         <v>0.73204319779662241</v>
       </c>
-      <c r="V31">
+      <c r="V83">
         <v>0.63781981590200776</v>
       </c>
-      <c r="W31">
+      <c r="W83">
         <v>0.64687975646879758</v>
       </c>
-      <c r="X31">
+      <c r="X83">
         <v>0.59019441698441844</v>
       </c>
-      <c r="Y31">
+      <c r="Y83">
         <v>0.59195970437320533</v>
       </c>
-      <c r="Z31">
+      <c r="Z83">
         <v>0.61490844042743487</v>
       </c>
-      <c r="AA31">
+      <c r="AA83">
         <v>0.57136468483735825</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
         <v>15</v>
       </c>
-      <c r="D32">
+      <c r="D84">
         <v>0.11415525114155252</v>
       </c>
-      <c r="E32">
+      <c r="E84">
         <v>0.11415525114155252</v>
       </c>
-      <c r="F32">
+      <c r="F84">
         <v>0.11415525114155252</v>
       </c>
-      <c r="G32">
+      <c r="G84">
         <v>0.11415525114155252</v>
       </c>
-      <c r="H32">
+      <c r="H84">
         <v>0.11415525114155252</v>
       </c>
-      <c r="I32">
+      <c r="I84">
         <v>0.11415525114155252</v>
       </c>
-      <c r="J32">
+      <c r="J84">
         <v>0.11415525114155252</v>
       </c>
-      <c r="K32">
+      <c r="K84">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="L32">
+      <c r="L84">
         <v>5.7077625570776259E-2</v>
       </c>
-      <c r="M32">
+      <c r="M84">
         <v>6.9308545335942592E-2</v>
       </c>
-      <c r="N32">
+      <c r="N84">
         <v>6.8054092026694768E-2</v>
       </c>
-      <c r="O32">
+      <c r="O84">
         <v>8.8660578386605779E-2</v>
       </c>
-      <c r="P32">
+      <c r="P84">
         <v>0.11598801893510953</v>
       </c>
-      <c r="Q32">
+      <c r="Q84">
         <v>0.11220942299709424</v>
       </c>
-      <c r="R32">
+      <c r="R84">
         <v>0.12097049001567504</v>
       </c>
-      <c r="S32">
+      <c r="S84">
         <v>0.12390801069286163</v>
       </c>
-      <c r="T32">
+      <c r="T84">
         <v>0.1283875941410188</v>
       </c>
-      <c r="U32">
+      <c r="U84">
         <v>0.1271485317592902</v>
       </c>
-      <c r="V32">
+      <c r="V84">
         <v>0.12814312199794212</v>
       </c>
-      <c r="W32">
+      <c r="W84">
         <v>0.12935469333265309</v>
       </c>
-      <c r="X32">
+      <c r="X84">
         <v>0.12621188286312468</v>
       </c>
-      <c r="Y32">
+      <c r="Y84">
         <v>0.12001537697017431</v>
       </c>
-      <c r="Z32">
+      <c r="Z84">
         <v>0.12915663284776227</v>
       </c>
-      <c r="AA32">
+      <c r="AA84">
         <v>0.1291537512915375</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D85">
         <v>0.14269406392694065</v>
       </c>
-      <c r="E33">
+      <c r="E85">
         <v>0.21200260926288322</v>
       </c>
-      <c r="F33">
+      <c r="F85">
         <v>0.22015655577299412</v>
       </c>
-      <c r="G33">
+      <c r="G85">
         <v>0.20236612702366127</v>
       </c>
-      <c r="H33">
+      <c r="H85">
         <v>0.18708777270421106</v>
       </c>
-      <c r="I33">
+      <c r="I85">
         <v>0.15882469724042089</v>
       </c>
-      <c r="J33">
+      <c r="J85">
         <v>0.17649535282878334</v>
       </c>
-      <c r="K33">
+      <c r="K85">
         <v>0.20928462709284626</v>
       </c>
-      <c r="L33">
+      <c r="L85">
         <v>0.19104217029277468</v>
       </c>
-      <c r="M33">
+      <c r="M85">
         <v>0.19715459312875117</v>
       </c>
-      <c r="N33">
+      <c r="N85">
         <v>0.19199715674230658</v>
       </c>
-      <c r="O33">
+      <c r="O85">
         <v>0.20889060009186458</v>
       </c>
-      <c r="P33">
+      <c r="P85">
         <v>0.22771047468183536</v>
       </c>
-      <c r="Q33">
+      <c r="Q85">
         <v>0.22565247560211299</v>
       </c>
-      <c r="R33">
+      <c r="R85">
         <v>0.21490966845344453</v>
       </c>
-      <c r="S33">
+      <c r="S85">
         <v>0.23739859023806356</v>
       </c>
-      <c r="T33">
+      <c r="T85">
         <v>0.21094548568767438</v>
       </c>
-      <c r="U33">
+      <c r="U85">
         <v>0.20810079485878574</v>
       </c>
-      <c r="V33">
+      <c r="V85">
         <v>0.21911679078177193</v>
       </c>
-      <c r="W33">
+      <c r="W85">
         <v>0.24123373826139399</v>
       </c>
-      <c r="X33">
+      <c r="X85">
         <v>0.259420086117576</v>
       </c>
-      <c r="Y33">
+      <c r="Y85">
         <v>0.22664894337161073</v>
       </c>
-      <c r="Z33">
+      <c r="Z85">
         <v>0.21152457876108918</v>
       </c>
-      <c r="AA33">
+      <c r="AA85">
         <v>0.24995886297256162</v>
       </c>
     </row>

--- a/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF91F2B6-BBB7-40FA-949A-4FD02B626781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC2A970-A75D-4CEB-B831-854BEB2094E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -300,16 +300,53 @@
   </si>
   <si>
     <t>geothermal</t>
+  </si>
+  <si>
+    <t>VERVESTACKS: the open USE platform. Powered by data | Guided by intuition | Built with AI.</t>
+  </si>
+  <si>
+    <t>EMBER Utilization Factors</t>
+  </si>
+  <si>
+    <t>IRENA Utilization Factors</t>
+  </si>
+  <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>EMBER Generation (TWh)</t>
+  </si>
+  <si>
+    <t>IRENA Generation (TWh)</t>
+  </si>
+  <si>
+    <t>IRENA Capacity (GW)</t>
+  </si>
+  <si>
+    <t>Electricity Trade Data (TWh) - Source: EMBER (estimated)</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Export</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,8 +380,35 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +421,26 @@
         <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -366,12 +448,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,6 +494,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,9 +1533,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Z88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1427,14 +1554,4300 @@
     <col min="26" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+    </row>
+    <row r="2" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2003</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2004</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2005</v>
+      </c>
+      <c r="H3" s="10">
+        <v>2006</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2007</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2008</v>
+      </c>
+      <c r="K3" s="10">
+        <v>2009</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2010</v>
+      </c>
+      <c r="M3" s="10">
+        <v>2011</v>
+      </c>
+      <c r="N3" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2013</v>
+      </c>
+      <c r="P3" s="10">
+        <v>2014</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2015</v>
+      </c>
+      <c r="R3" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S3" s="10">
+        <v>2017</v>
+      </c>
+      <c r="T3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="U3" s="10">
+        <v>2019</v>
+      </c>
+      <c r="V3" s="10">
+        <v>2020</v>
+      </c>
+      <c r="W3" s="10">
+        <v>2021</v>
+      </c>
+      <c r="X3" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.52511415525114158</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.56736863627070133</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.53729071537290718</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.55150329122931863</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.5198877702591187</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.52592954990215257</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.4981320049813201</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.51248421257165067</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.50183100501831013</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.50272216368106781</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.4926700312424897</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.45499021526418787</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.43923311863074177</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.43017039759438686</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.43983346763362885</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0.4585558393313211</v>
+      </c>
+      <c r="R4" s="12">
+        <v>0.48786349435231918</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.49350193185809621</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0.47511838322340605</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0.47140003261578606</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0.49520125147979022</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0.51042986743910046</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0.51743733923550872</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>0.47840997366376781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.36692759295499022</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.27832137421178516</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.3215372907153729</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.35687105892585347</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.32922644619167279</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.40678898431400384</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.34701377139842454</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.37066346486201313</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.3450091862810224</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.32421288233780388</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.34949759720401924</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.26017821983638251</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.31009768221490086</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.43129337356808434</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.2216186427334278</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0.36291602568798381</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0.31224818694601131</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0.3909969965570288</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0.25364442165409129</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0.11110297169926502</v>
+      </c>
+      <c r="V5" s="14">
+        <v>9.4315434766683762E-2</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0.19967992482638128</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0.19692917826411252</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>9.8237188233367925E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5.1995525945360881E-2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>6.6085290592071855E-2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7.7927609196221478E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>8.3409551663971043E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>9.1821476367202157E-2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.10347982883440537</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.10081242957955287</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.10300672846133523</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.10308365228960664</v>
+      </c>
+      <c r="K6" s="12">
+        <v>9.0634494515949904E-2</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.1003822637721424</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.12589522648333523</v>
+      </c>
+      <c r="N6" s="12">
+        <v>9.3789525585782574E-2</v>
+      </c>
+      <c r="O6" s="12">
+        <v>8.2261562245029424E-2</v>
+      </c>
+      <c r="P6" s="12">
+        <v>6.3254025474645523E-2</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0.10199670368268894</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0.17702922981907276</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0.23684875364922525</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0.18576779571732707</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.26227018833281296</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0.23139577934098482</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0.22030309046390048</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0.29350540681363757</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>0.19394051585832409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.31738099437552669</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.35548689270581235</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.28699663480848048</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.27941970349842243</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.28411538491662558</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.24533837514948323</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.26841646026771221</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.27372815894713171</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.30441400304414001</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.27070405495063032</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.29577905884263395</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.21911293274085661</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.2863693365114921</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.34438110998743526</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.30586892291163043</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0.26626640442588823</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0.29071601002310821</v>
+      </c>
+      <c r="S7" s="14">
+        <v>0.23802179137104362</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0.30969368340943682</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0.2691207681220279</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0.29488143495459235</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0.28054147044762406</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0.21437075214370757</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0.25152932097013991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.75012178005582386</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.76081818851986283</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.78802667122782466</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.79467261081130947</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.80759074765924088</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.81480430837725581</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.81238622370242686</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.79351072691234414</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.79300545548775292</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.7409151370622481</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.77487419957513193</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.79995472124998268</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.7692505209587811</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0.76612223671238655</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0.78926792362212639</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0.79098576757245864</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0.72908913765680294</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0.72033717479405757</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0.74670155878968303</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0.72151254170744272</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0.65784287477875458</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0.70530840509868675</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0.54796379753989866</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0.62404250888700497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1.4347239518472397</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.2712743877127439</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1.266085512660855</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1.4217517642175177</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1.2681159420289856</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.4951856263648997</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1.4331447290053603</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1.2480242360379346</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.7913735653461681</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.59863557295064151</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.66634809387278326</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0.80505999787618143</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.84355421047042589</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.75727407879367103</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0.69974083672713816</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0.71331932062525671</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0.68855548307603109</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0.73204319779662241</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0.63781981590200776</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0.64687975646879758</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0.59019441698441844</v>
+      </c>
+      <c r="W9" s="14">
+        <v>0.59195970437320533</v>
+      </c>
+      <c r="X9" s="14">
+        <v>0.61490844042743487</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0.57136468483735825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="I10" s="12">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>6.9308545335942592E-2</v>
+      </c>
+      <c r="L10" s="12">
+        <v>6.8054092026694768E-2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>8.8660578386605779E-2</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.11598801893510953</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.11220942299709424</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0.12097049001567504</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0.12390801069286163</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0.1283875941410188</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0.1271485317592902</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0.12814312199794212</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0.12935469333265309</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0.12621188286312468</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0.12001537697017431</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0.12915663284776227</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0.1291537512915375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.14269406392694065</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.21200260926288322</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.22015655577299412</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.20236612702366127</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.18708777270421106</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.15882469724042089</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.17649535282878334</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.20928462709284626</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.19104217029277468</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.19715459312875117</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.19199715674230658</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.20889060009186458</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.22771047468183536</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.22565247560211299</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.21490966845344453</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0.23739859023806356</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0.21094548568767438</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0.20810079485878574</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0.21911679078177193</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0.24123373826139399</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0.259420086117576</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0.22664894337161073</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0.21152457876108918</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0.24995886297256162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2003</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2004</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2005</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2006</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2007</v>
+      </c>
+      <c r="J16" s="10">
+        <v>2008</v>
+      </c>
+      <c r="K16" s="10">
+        <v>2009</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2010</v>
+      </c>
+      <c r="M16" s="10">
+        <v>2011</v>
+      </c>
+      <c r="N16" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O16" s="10">
+        <v>2013</v>
+      </c>
+      <c r="P16" s="10">
+        <v>2014</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>2015</v>
+      </c>
+      <c r="R16" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S16" s="10">
+        <v>2017</v>
+      </c>
+      <c r="T16" s="10">
+        <v>2018</v>
+      </c>
+      <c r="U16" s="10">
+        <v>2019</v>
+      </c>
+      <c r="V16" s="10">
+        <v>2020</v>
+      </c>
+      <c r="W16" s="10">
+        <v>2021</v>
+      </c>
+      <c r="X16" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.65507145273127021</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.70855841068035541</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.6572836882190054</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.66795828727795103</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.62441319864710465</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.61153310682623163</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.57753151026969707</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.59143141855243575</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.57563238385156201</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.57671093237261395</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.54659134266267884</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.48959346018435024</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.47204644576248633</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.46064340026918904</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.46706407389769605</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0.48648885924182372</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0.51708852636124003</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0.51871573462922282</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0.4969645862171681</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0.49137811601855713</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0.51787948529646377</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0.5341149748927575</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0.54240480484752174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14">
+        <v>0.47682418559038953</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0.47787079316759684</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.68608066971080672</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0.63251902587519038</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0.71154709387818282</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0.68991475465456553</v>
+      </c>
+      <c r="S18" s="14">
+        <v>0.94102096498296517</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0.89751473769031775</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0.90819514539774093</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0.94150868710858548</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0.70902073879299388</v>
+      </c>
+      <c r="X18" s="14">
+        <v>0.80293905593960735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.32282078015860649</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.35595105709784614</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.29729053112042492</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.29083409798800802</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.29496174796927549</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.25589254143295048</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.28033326413732557</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.28707591471688315</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.31068978946717857</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.28061596014311618</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.30318205573739576</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.22657361497385858</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.28814545753169268</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0.34306621642304425</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.31112192879741829</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0.27034926347874866</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0.2926659088325631</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0.24483427383365902</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0.31269804580294608</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0.27171404276150501</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0.29510118752862963</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0.28086313296037818</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0.22444913497305133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.75008977690880807</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.76077483705554294</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.7879893080553233</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.79463498604871241</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.8075543128788194</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.8148025038364537</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.81238802824322898</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.79351072691234414</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.79300004186534656</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.74090790403508877</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0.77487600783192179</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0.79995067617954385</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0.76924331867198725</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0.76613068307985177</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0.78926613163964765</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0.79098180387357531</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0.72908096795262656</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0.72033559980239359</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0.74670483535098608</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0.72151541141096831</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0.65784820512248465</v>
+      </c>
+      <c r="W20" s="14">
+        <v>0.70531080719289641</v>
+      </c>
+      <c r="X20" s="14">
+        <v>0.54796572739577298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12">
+        <v>3.6927707854271789E-2</v>
+      </c>
+      <c r="C21" s="12">
+        <v>3.2106164383561647E-2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>3.0674905885911357E-2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3.723476881607915E-2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>3.5518030365180489E-2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>4.2416457904387937E-2</v>
+      </c>
+      <c r="H21" s="12">
+        <v>3.9887577105863672E-2</v>
+      </c>
+      <c r="I21" s="12">
+        <v>3.815298856026976E-2</v>
+      </c>
+      <c r="J21" s="12">
+        <v>3.4664567786608445E-2</v>
+      </c>
+      <c r="K21" s="12">
+        <v>3.0554855784857463E-2</v>
+      </c>
+      <c r="L21" s="12">
+        <v>3.1924978980746692E-2</v>
+      </c>
+      <c r="M21" s="12">
+        <v>4.2420421651444461E-2</v>
+      </c>
+      <c r="N21" s="12">
+        <v>4.4328624511802063E-2</v>
+      </c>
+      <c r="O21" s="12">
+        <v>4.3455693252832557E-2</v>
+      </c>
+      <c r="P21" s="12">
+        <v>4.654041069231591E-2</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>4.4431352478279694E-2</v>
+      </c>
+      <c r="R21" s="12">
+        <v>4.8236179261924875E-2</v>
+      </c>
+      <c r="S21" s="12">
+        <v>5.73174118940072E-2</v>
+      </c>
+      <c r="T21" s="12">
+        <v>5.2895430041181767E-2</v>
+      </c>
+      <c r="U21" s="12">
+        <v>5.3900035971085496E-2</v>
+      </c>
+      <c r="V21" s="12">
+        <v>5.1096165415330838E-2</v>
+      </c>
+      <c r="W21" s="12">
+        <v>5.0187342643328442E-2</v>
+      </c>
+      <c r="X21" s="12">
+        <v>4.9969373471372251E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="14">
+        <v>8.51761252446184E-2</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.10047292889758642</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.10136986301369863</v>
+      </c>
+      <c r="E22" s="14">
+        <v>9.8515981735159838E-2</v>
+      </c>
+      <c r="F22" s="14">
+        <v>8.7671232876712343E-2</v>
+      </c>
+      <c r="G22" s="14">
+        <v>9.2211099402880234E-2</v>
+      </c>
+      <c r="H22" s="14">
+        <v>9.2108066971080677E-2</v>
+      </c>
+      <c r="I22" s="14">
+        <v>7.7151387425360041E-2</v>
+      </c>
+      <c r="J22" s="14">
+        <v>5.9492009132420094E-2</v>
+      </c>
+      <c r="K22" s="14">
+        <v>7.1695679409195065E-2</v>
+      </c>
+      <c r="L22" s="14">
+        <v>6.7793348379082907E-2</v>
+      </c>
+      <c r="M22" s="14">
+        <v>8.9144951765142907E-2</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0.11753105059980719</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.11489224215382465</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0.12448158526861221</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0.12979460687322764</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0.13506891572810997</v>
+      </c>
+      <c r="S22" s="14">
+        <v>0.13509952073241918</v>
+      </c>
+      <c r="T22" s="14">
+        <v>0.13660941729581461</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0.13869028839168057</v>
+      </c>
+      <c r="V22" s="14">
+        <v>0.1352356616976321</v>
+      </c>
+      <c r="W22" s="14">
+        <v>0.13037828662205719</v>
+      </c>
+      <c r="X22" s="14">
+        <v>0.15496417492770403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.14467676039413602</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.22699598726995987</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.21969922572960091</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.20304448912906872</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.18967947246243719</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.15924988419032496</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.17645394336864709</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.20900784040654269</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.19101497872545981</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.19710765174028208</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.19202855734949736</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.20897927349870182</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.22776141636182795</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0.2257468487267531</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0.21492394513606378</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>0.23744797980775009</v>
+      </c>
+      <c r="R23" s="12">
+        <v>0.21101790768326553</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0.20810602325113201</v>
+      </c>
+      <c r="T23" s="12">
+        <v>0.21910392366842035</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0.24129166336449459</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0.26069700487040792</v>
+      </c>
+      <c r="W23" s="12">
+        <v>0.22841616489062896</v>
+      </c>
+      <c r="X23" s="12">
+        <v>0.20822393273037404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2003</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2004</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2005</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2006</v>
+      </c>
+      <c r="I28" s="10">
+        <v>2007</v>
+      </c>
+      <c r="J28" s="10">
+        <v>2008</v>
+      </c>
+      <c r="K28" s="10">
+        <v>2009</v>
+      </c>
+      <c r="L28" s="10">
+        <v>2010</v>
+      </c>
+      <c r="M28" s="10">
+        <v>2011</v>
+      </c>
+      <c r="N28" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O28" s="10">
+        <v>2013</v>
+      </c>
+      <c r="P28" s="10">
+        <v>2014</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>2015</v>
+      </c>
+      <c r="R28" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S28" s="10">
+        <v>2017</v>
+      </c>
+      <c r="T28" s="10">
+        <v>2018</v>
+      </c>
+      <c r="U28" s="10">
+        <v>2019</v>
+      </c>
+      <c r="V28" s="10">
+        <v>2020</v>
+      </c>
+      <c r="W28" s="10">
+        <v>2021</v>
+      </c>
+      <c r="X28" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1.01</v>
+      </c>
+      <c r="K29" s="15">
+        <v>1.04</v>
+      </c>
+      <c r="L29" s="16">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="M29" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="N29" s="16">
+        <v>1.51</v>
+      </c>
+      <c r="O29" s="16">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="P29" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>1.77</v>
+      </c>
+      <c r="R29" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="S29" s="16">
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="T29" s="16">
+        <v>2.16</v>
+      </c>
+      <c r="U29" s="16">
+        <v>2.2399999999999998</v>
+      </c>
+      <c r="V29" s="16">
+        <v>2.16</v>
+      </c>
+      <c r="W29" s="16">
+        <v>2.27</v>
+      </c>
+      <c r="X29" s="16">
+        <v>2.29</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="C30" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="D30" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="E30" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="F30" s="17">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G30" s="17">
+        <v>7.72</v>
+      </c>
+      <c r="H30" s="17">
+        <v>7.53</v>
+      </c>
+      <c r="I30" s="17">
+        <v>7.53</v>
+      </c>
+      <c r="J30" s="17">
+        <v>7.63</v>
+      </c>
+      <c r="K30" s="17">
+        <v>7.63</v>
+      </c>
+      <c r="L30" s="18">
+        <v>7.63</v>
+      </c>
+      <c r="M30" s="18">
+        <v>7.63</v>
+      </c>
+      <c r="N30" s="18">
+        <v>7.9</v>
+      </c>
+      <c r="O30" s="18">
+        <v>6.31</v>
+      </c>
+      <c r="P30" s="18">
+        <v>5.8</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>3.74</v>
+      </c>
+      <c r="R30" s="18">
+        <v>3.74</v>
+      </c>
+      <c r="S30" s="18">
+        <v>3.74</v>
+      </c>
+      <c r="T30" s="18">
+        <v>3.74</v>
+      </c>
+      <c r="U30" s="18">
+        <v>3.74</v>
+      </c>
+      <c r="V30" s="18">
+        <v>3.74</v>
+      </c>
+      <c r="W30" s="18">
+        <v>3.11</v>
+      </c>
+      <c r="X30" s="18">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Y30" s="18">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="15">
+        <v>25.27</v>
+      </c>
+      <c r="C31" s="15">
+        <v>26.17</v>
+      </c>
+      <c r="D31" s="15">
+        <v>26.91</v>
+      </c>
+      <c r="E31" s="15">
+        <v>26.51</v>
+      </c>
+      <c r="F31" s="15">
+        <v>26.17</v>
+      </c>
+      <c r="G31" s="15">
+        <v>25.45</v>
+      </c>
+      <c r="H31" s="15">
+        <v>24.64</v>
+      </c>
+      <c r="I31" s="15">
+        <v>24.37</v>
+      </c>
+      <c r="J31" s="15">
+        <v>24.23</v>
+      </c>
+      <c r="K31" s="15">
+        <v>25.82</v>
+      </c>
+      <c r="L31" s="16">
+        <v>27.02</v>
+      </c>
+      <c r="M31" s="16">
+        <v>26.74</v>
+      </c>
+      <c r="N31" s="16">
+        <v>27.69</v>
+      </c>
+      <c r="O31" s="16">
+        <v>25.52</v>
+      </c>
+      <c r="P31" s="16">
+        <v>23.75</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>23.66</v>
+      </c>
+      <c r="R31" s="16">
+        <v>22.55</v>
+      </c>
+      <c r="S31" s="16">
+        <v>19.52</v>
+      </c>
+      <c r="T31" s="16">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="U31" s="16">
+        <v>17.11</v>
+      </c>
+      <c r="V31" s="16">
+        <v>17.39</v>
+      </c>
+      <c r="W31" s="16">
+        <v>17.25</v>
+      </c>
+      <c r="X31" s="16">
+        <v>17.79</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="17">
+        <v>23.3</v>
+      </c>
+      <c r="C32" s="17">
+        <v>23.32</v>
+      </c>
+      <c r="D32" s="17">
+        <v>23.42</v>
+      </c>
+      <c r="E32" s="17">
+        <v>23.43</v>
+      </c>
+      <c r="F32" s="17">
+        <v>23.32</v>
+      </c>
+      <c r="G32" s="17">
+        <v>23.33</v>
+      </c>
+      <c r="H32" s="17">
+        <v>23.34</v>
+      </c>
+      <c r="I32" s="17">
+        <v>23.35</v>
+      </c>
+      <c r="J32" s="17">
+        <v>23.31</v>
+      </c>
+      <c r="K32" s="17">
+        <v>23.4</v>
+      </c>
+      <c r="L32" s="18">
+        <v>23.62</v>
+      </c>
+      <c r="M32" s="18">
+        <v>23.83</v>
+      </c>
+      <c r="N32" s="18">
+        <v>23.85</v>
+      </c>
+      <c r="O32" s="18">
+        <v>23.84</v>
+      </c>
+      <c r="P32" s="18">
+        <v>23.8</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>23.82</v>
+      </c>
+      <c r="R32" s="18">
+        <v>23.89</v>
+      </c>
+      <c r="S32" s="18">
+        <v>23.98</v>
+      </c>
+      <c r="T32" s="18">
+        <v>24</v>
+      </c>
+      <c r="U32" s="18">
+        <v>24.14</v>
+      </c>
+      <c r="V32" s="18">
+        <v>24.23</v>
+      </c>
+      <c r="W32" s="18">
+        <v>24.26</v>
+      </c>
+      <c r="X32" s="18">
+        <v>24.24</v>
+      </c>
+      <c r="Y32" s="18">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="15">
+        <v>63.18</v>
+      </c>
+      <c r="C33" s="15">
+        <v>63.18</v>
+      </c>
+      <c r="D33" s="15">
+        <v>63.27</v>
+      </c>
+      <c r="E33" s="15">
+        <v>63.36</v>
+      </c>
+      <c r="F33" s="15">
+        <v>63.36</v>
+      </c>
+      <c r="G33" s="15">
+        <v>63.26</v>
+      </c>
+      <c r="H33" s="15">
+        <v>63.26</v>
+      </c>
+      <c r="I33" s="15">
+        <v>63.26</v>
+      </c>
+      <c r="J33" s="15">
+        <v>63.26</v>
+      </c>
+      <c r="K33" s="15">
+        <v>63.13</v>
+      </c>
+      <c r="L33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="M33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="N33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="O33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="P33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="R33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="S33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="T33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="U33" s="16">
+        <v>63.13</v>
+      </c>
+      <c r="V33" s="16">
+        <v>61.4</v>
+      </c>
+      <c r="W33" s="16">
+        <v>61.4</v>
+      </c>
+      <c r="X33" s="16">
+        <v>61.4</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="I34" s="17">
+        <v>1.04</v>
+      </c>
+      <c r="J34" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="K34" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="L34" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="N34" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="O34" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="P34" s="18">
+        <v>1.85</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="R34" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="S34" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="T34" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="U34" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="V34" s="18">
+        <v>1.94</v>
+      </c>
+      <c r="W34" s="18">
+        <v>1.94</v>
+      </c>
+      <c r="X34" s="18">
+        <v>1.94</v>
+      </c>
+      <c r="Y34" s="18">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L35" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="M35" s="16">
+        <v>3</v>
+      </c>
+      <c r="N35" s="16">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="O35" s="16">
+        <v>5.28</v>
+      </c>
+      <c r="P35" s="16">
+        <v>6.03</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>7.14</v>
+      </c>
+      <c r="R35" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="S35" s="16">
+        <v>8.61</v>
+      </c>
+      <c r="T35" s="16">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="U35" s="16">
+        <v>10.74</v>
+      </c>
+      <c r="V35" s="16">
+        <v>11.93</v>
+      </c>
+      <c r="W35" s="16">
+        <v>14.61</v>
+      </c>
+      <c r="X35" s="16">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="C36" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="H36" s="17">
+        <v>1.41</v>
+      </c>
+      <c r="I36" s="17">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J36" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="K36" s="17">
+        <v>4.58</v>
+      </c>
+      <c r="L36" s="18">
+        <v>5.91</v>
+      </c>
+      <c r="M36" s="18">
+        <v>6.76</v>
+      </c>
+      <c r="N36" s="18">
+        <v>7.61</v>
+      </c>
+      <c r="O36" s="18">
+        <v>8.16</v>
+      </c>
+      <c r="P36" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="R36" s="18">
+        <v>11.57</v>
+      </c>
+      <c r="S36" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="T36" s="18">
+        <v>14.9</v>
+      </c>
+      <c r="U36" s="18">
+        <v>16.43</v>
+      </c>
+      <c r="V36" s="18">
+        <v>17.54</v>
+      </c>
+      <c r="W36" s="18">
+        <v>18.55</v>
+      </c>
+      <c r="X36" s="18">
+        <v>20.81</v>
+      </c>
+      <c r="Y36" s="18">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2003</v>
+      </c>
+      <c r="F41" s="10">
+        <v>2004</v>
+      </c>
+      <c r="G41" s="10">
+        <v>2005</v>
+      </c>
+      <c r="H41" s="10">
+        <v>2006</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2007</v>
+      </c>
+      <c r="J41" s="10">
+        <v>2008</v>
+      </c>
+      <c r="K41" s="10">
+        <v>2009</v>
+      </c>
+      <c r="L41" s="10">
+        <v>2010</v>
+      </c>
+      <c r="M41" s="10">
+        <v>2011</v>
+      </c>
+      <c r="N41" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O41" s="10">
+        <v>2013</v>
+      </c>
+      <c r="P41" s="10">
+        <v>2014</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>2015</v>
+      </c>
+      <c r="R41" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S41" s="10">
+        <v>2017</v>
+      </c>
+      <c r="T41" s="10">
+        <v>2018</v>
+      </c>
+      <c r="U41" s="10">
+        <v>2019</v>
+      </c>
+      <c r="V41" s="10">
+        <v>2020</v>
+      </c>
+      <c r="W41" s="10">
+        <v>2021</v>
+      </c>
+      <c r="X41" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="16">
+        <v>2.99</v>
+      </c>
+      <c r="C42" s="16">
+        <v>3.33</v>
+      </c>
+      <c r="D42" s="16">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="E42" s="16">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="F42" s="16">
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="G42" s="16">
+        <v>3.87</v>
+      </c>
+      <c r="H42" s="16">
+        <v>3.84</v>
+      </c>
+      <c r="I42" s="16">
+        <v>4.22</v>
+      </c>
+      <c r="J42" s="16">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="K42" s="16">
+        <v>4.58</v>
+      </c>
+      <c r="L42" s="16">
+        <v>4.92</v>
+      </c>
+      <c r="M42" s="16">
+        <v>5.58</v>
+      </c>
+      <c r="N42" s="16">
+        <v>5.81</v>
+      </c>
+      <c r="O42" s="16">
+        <v>6.18</v>
+      </c>
+      <c r="P42" s="16">
+        <v>6.5500000000000007</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>7.11</v>
+      </c>
+      <c r="R42" s="16">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="S42" s="16">
+        <v>8.43</v>
+      </c>
+      <c r="T42" s="16">
+        <v>8.99</v>
+      </c>
+      <c r="U42" s="16">
+        <v>9.25</v>
+      </c>
+      <c r="V42" s="16">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="W42" s="16">
+        <v>10.15</v>
+      </c>
+      <c r="X42" s="16">
+        <v>10.379999999999999</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="18">
+        <v>27</v>
+      </c>
+      <c r="C43" s="18">
+        <v>20.48</v>
+      </c>
+      <c r="D43" s="18">
+        <v>23.66</v>
+      </c>
+      <c r="E43" s="18">
+        <v>26.26</v>
+      </c>
+      <c r="F43" s="18">
+        <v>24.37</v>
+      </c>
+      <c r="G43" s="18">
+        <v>27.51</v>
+      </c>
+      <c r="H43" s="18">
+        <v>22.89</v>
+      </c>
+      <c r="I43" s="18">
+        <v>24.45</v>
+      </c>
+      <c r="J43" s="18">
+        <v>23.06</v>
+      </c>
+      <c r="K43" s="18">
+        <v>21.67</v>
+      </c>
+      <c r="L43" s="18">
+        <v>23.36</v>
+      </c>
+      <c r="M43" s="18">
+        <v>17.39</v>
+      </c>
+      <c r="N43" s="18">
+        <v>21.46</v>
+      </c>
+      <c r="O43" s="18">
+        <v>23.84</v>
+      </c>
+      <c r="P43" s="18">
+        <v>11.26</v>
+      </c>
+      <c r="Q43" s="18">
+        <v>11.89</v>
+      </c>
+      <c r="R43" s="18">
+        <v>10.23</v>
+      </c>
+      <c r="S43" s="18">
+        <v>12.81</v>
+      </c>
+      <c r="T43" s="18">
+        <v>8.31</v>
+      </c>
+      <c r="U43" s="18">
+        <v>3.64</v>
+      </c>
+      <c r="V43" s="18">
+        <v>3.09</v>
+      </c>
+      <c r="W43" s="18">
+        <v>5.44</v>
+      </c>
+      <c r="X43" s="18">
+        <v>4.33</v>
+      </c>
+      <c r="Y43" s="18">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="16">
+        <v>11.51</v>
+      </c>
+      <c r="C44" s="16">
+        <v>15.15</v>
+      </c>
+      <c r="D44" s="16">
+        <v>18.37</v>
+      </c>
+      <c r="E44" s="16">
+        <v>19.37</v>
+      </c>
+      <c r="F44" s="16">
+        <v>21.05</v>
+      </c>
+      <c r="G44" s="16">
+        <v>23.07</v>
+      </c>
+      <c r="H44" s="16">
+        <v>21.76</v>
+      </c>
+      <c r="I44" s="16">
+        <v>21.99</v>
+      </c>
+      <c r="J44" s="16">
+        <v>21.88</v>
+      </c>
+      <c r="K44" s="16">
+        <v>20.5</v>
+      </c>
+      <c r="L44" s="16">
+        <v>23.76</v>
+      </c>
+      <c r="M44" s="16">
+        <v>29.49</v>
+      </c>
+      <c r="N44" s="16">
+        <v>22.75</v>
+      </c>
+      <c r="O44" s="16">
+        <v>18.39</v>
+      </c>
+      <c r="P44" s="16">
+        <v>13.16</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>21.14</v>
+      </c>
+      <c r="R44" s="16">
+        <v>34.97</v>
+      </c>
+      <c r="S44" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="T44" s="16">
+        <v>30.61</v>
+      </c>
+      <c r="U44" s="16">
+        <v>39.31</v>
+      </c>
+      <c r="V44" s="16">
+        <v>35.25</v>
+      </c>
+      <c r="W44" s="16">
+        <v>33.29</v>
+      </c>
+      <c r="X44" s="16">
+        <v>45.74</v>
+      </c>
+      <c r="Y44" s="16">
+        <v>31.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="18">
+        <v>64.78</v>
+      </c>
+      <c r="C45" s="18">
+        <v>72.62</v>
+      </c>
+      <c r="D45" s="18">
+        <v>58.88</v>
+      </c>
+      <c r="E45" s="18">
+        <v>57.35</v>
+      </c>
+      <c r="F45" s="18">
+        <v>58.04</v>
+      </c>
+      <c r="G45" s="18">
+        <v>50.14</v>
+      </c>
+      <c r="H45" s="18">
+        <v>54.88</v>
+      </c>
+      <c r="I45" s="18">
+        <v>55.99</v>
+      </c>
+      <c r="J45" s="18">
+        <v>62.16</v>
+      </c>
+      <c r="K45" s="18">
+        <v>55.49</v>
+      </c>
+      <c r="L45" s="18">
+        <v>61.2</v>
+      </c>
+      <c r="M45" s="18">
+        <v>45.74</v>
+      </c>
+      <c r="N45" s="18">
+        <v>59.83</v>
+      </c>
+      <c r="O45" s="18">
+        <v>71.92</v>
+      </c>
+      <c r="P45" s="18">
+        <v>63.77</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>55.56</v>
+      </c>
+      <c r="R45" s="18">
+        <v>60.84</v>
+      </c>
+      <c r="S45" s="18">
+        <v>50</v>
+      </c>
+      <c r="T45" s="18">
+        <v>65.11</v>
+      </c>
+      <c r="U45" s="18">
+        <v>56.91</v>
+      </c>
+      <c r="V45" s="18">
+        <v>62.59</v>
+      </c>
+      <c r="W45" s="18">
+        <v>59.62</v>
+      </c>
+      <c r="X45" s="18">
+        <v>45.52</v>
+      </c>
+      <c r="Y45" s="18">
+        <v>53.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="16">
+        <v>415.16</v>
+      </c>
+      <c r="C46" s="16">
+        <v>421.08</v>
+      </c>
+      <c r="D46" s="16">
+        <v>436.76</v>
+      </c>
+      <c r="E46" s="16">
+        <v>441.07</v>
+      </c>
+      <c r="F46" s="16">
+        <v>448.24</v>
+      </c>
+      <c r="G46" s="16">
+        <v>451.53</v>
+      </c>
+      <c r="H46" s="16">
+        <v>450.19</v>
+      </c>
+      <c r="I46" s="16">
+        <v>439.73</v>
+      </c>
+      <c r="J46" s="16">
+        <v>439.45</v>
+      </c>
+      <c r="K46" s="16">
+        <v>409.74</v>
+      </c>
+      <c r="L46" s="16">
+        <v>428.52</v>
+      </c>
+      <c r="M46" s="16">
+        <v>442.39</v>
+      </c>
+      <c r="N46" s="16">
+        <v>425.41</v>
+      </c>
+      <c r="O46" s="16">
+        <v>423.68</v>
+      </c>
+      <c r="P46" s="16">
+        <v>436.48</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>437.43</v>
+      </c>
+      <c r="R46" s="16">
+        <v>403.2</v>
+      </c>
+      <c r="S46" s="16">
+        <v>398.36</v>
+      </c>
+      <c r="T46" s="16">
+        <v>412.94</v>
+      </c>
+      <c r="U46" s="16">
+        <v>399.01</v>
+      </c>
+      <c r="V46" s="16">
+        <v>353.83</v>
+      </c>
+      <c r="W46" s="16">
+        <v>379.36</v>
+      </c>
+      <c r="X46" s="16">
+        <v>294.73</v>
+      </c>
+      <c r="Y46" s="16">
+        <v>335.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="18">
+        <v>11.06</v>
+      </c>
+      <c r="C47" s="18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D47" s="18">
+        <v>9.76</v>
+      </c>
+      <c r="E47" s="18">
+        <v>10.96</v>
+      </c>
+      <c r="F47" s="18">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G47" s="18">
+        <v>12.05</v>
+      </c>
+      <c r="H47" s="18">
+        <v>11.55</v>
+      </c>
+      <c r="I47" s="18">
+        <v>11.37</v>
+      </c>
+      <c r="J47" s="18">
+        <v>10.26</v>
+      </c>
+      <c r="K47" s="18">
+        <v>8.81</v>
+      </c>
+      <c r="L47" s="18">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="M47" s="18">
+        <v>12.13</v>
+      </c>
+      <c r="N47" s="18">
+        <v>12.71</v>
+      </c>
+      <c r="O47" s="18">
+        <v>11.41</v>
+      </c>
+      <c r="P47" s="18">
+        <v>11.34</v>
+      </c>
+      <c r="Q47" s="18">
+        <v>11.81</v>
+      </c>
+      <c r="R47" s="18">
+        <v>11.4</v>
+      </c>
+      <c r="S47" s="18">
+        <v>12.12</v>
+      </c>
+      <c r="T47" s="18">
+        <v>10.56</v>
+      </c>
+      <c r="U47" s="18">
+        <v>10.71</v>
+      </c>
+      <c r="V47" s="18">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="W47" s="18">
+        <v>10.06</v>
+      </c>
+      <c r="X47" s="18">
+        <v>10.45</v>
+      </c>
+      <c r="Y47" s="18">
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="L48" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="M48" s="16">
+        <v>2.33</v>
+      </c>
+      <c r="N48" s="16">
+        <v>4.43</v>
+      </c>
+      <c r="O48" s="16">
+        <v>5.19</v>
+      </c>
+      <c r="P48" s="16">
+        <v>6.39</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>7.75</v>
+      </c>
+      <c r="R48" s="16">
+        <v>8.66</v>
+      </c>
+      <c r="S48" s="16">
+        <v>9.59</v>
+      </c>
+      <c r="T48" s="16">
+        <v>10.81</v>
+      </c>
+      <c r="U48" s="16">
+        <v>12.17</v>
+      </c>
+      <c r="V48" s="16">
+        <v>13.19</v>
+      </c>
+      <c r="W48" s="16">
+        <v>15.36</v>
+      </c>
+      <c r="X48" s="16">
+        <v>19.63</v>
+      </c>
+      <c r="Y48" s="16">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0.13</v>
+      </c>
+      <c r="D49" s="18">
+        <v>0.27</v>
+      </c>
+      <c r="E49" s="18">
+        <v>0.39</v>
+      </c>
+      <c r="F49" s="18">
+        <v>0.59</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0.96</v>
+      </c>
+      <c r="H49" s="18">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I49" s="18">
+        <v>4.07</v>
+      </c>
+      <c r="J49" s="18">
+        <v>5.69</v>
+      </c>
+      <c r="K49" s="18">
+        <v>7.91</v>
+      </c>
+      <c r="L49" s="18">
+        <v>9.94</v>
+      </c>
+      <c r="M49" s="18">
+        <v>12.37</v>
+      </c>
+      <c r="N49" s="18">
+        <v>15.18</v>
+      </c>
+      <c r="O49" s="18">
+        <v>16.13</v>
+      </c>
+      <c r="P49" s="18">
+        <v>17.32</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>21.42</v>
+      </c>
+      <c r="R49" s="18">
+        <v>21.38</v>
+      </c>
+      <c r="S49" s="18">
+        <v>24.61</v>
+      </c>
+      <c r="T49" s="18">
+        <v>28.6</v>
+      </c>
+      <c r="U49" s="18">
+        <v>34.72</v>
+      </c>
+      <c r="V49" s="18">
+        <v>39.86</v>
+      </c>
+      <c r="W49" s="18">
+        <v>36.83</v>
+      </c>
+      <c r="X49" s="18">
+        <v>38.56</v>
+      </c>
+      <c r="Y49" s="18">
+        <v>48.61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D54" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E54" s="10">
+        <v>2003</v>
+      </c>
+      <c r="F54" s="10">
+        <v>2004</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2005</v>
+      </c>
+      <c r="H54" s="10">
+        <v>2006</v>
+      </c>
+      <c r="I54" s="10">
+        <v>2007</v>
+      </c>
+      <c r="J54" s="10">
+        <v>2008</v>
+      </c>
+      <c r="K54" s="10">
+        <v>2009</v>
+      </c>
+      <c r="L54" s="10">
+        <v>2010</v>
+      </c>
+      <c r="M54" s="10">
+        <v>2011</v>
+      </c>
+      <c r="N54" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O54" s="10">
+        <v>2013</v>
+      </c>
+      <c r="P54" s="10">
+        <v>2014</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>2015</v>
+      </c>
+      <c r="R54" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S54" s="10">
+        <v>2017</v>
+      </c>
+      <c r="T54" s="10">
+        <v>2018</v>
+      </c>
+      <c r="U54" s="10">
+        <v>2019</v>
+      </c>
+      <c r="V54" s="10">
+        <v>2020</v>
+      </c>
+      <c r="W54" s="10">
+        <v>2021</v>
+      </c>
+      <c r="X54" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A55" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="16">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="C55" s="16">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="D55" s="16">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="E55" s="16">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="F55" s="16">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="G55" s="16">
+        <v>3.391</v>
+      </c>
+      <c r="H55" s="16">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="I55" s="16">
+        <v>3.7509999999999999</v>
+      </c>
+      <c r="J55" s="16">
+        <v>3.9710000000000001</v>
+      </c>
+      <c r="K55" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="L55" s="16">
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="M55" s="16">
+        <v>5.0391110000000001</v>
+      </c>
+      <c r="N55" s="16">
+        <v>5.2972960000000002</v>
+      </c>
+      <c r="O55" s="16">
+        <v>5.6814349999999996</v>
+      </c>
+      <c r="P55" s="16">
+        <v>5.986905000000001</v>
+      </c>
+      <c r="Q55" s="16">
+        <v>6.5257550000000002</v>
+      </c>
+      <c r="R55" s="16">
+        <v>7.5223430000000002</v>
+      </c>
+      <c r="S55" s="16">
+        <v>7.7812460000000003</v>
+      </c>
+      <c r="T55" s="16">
+        <v>8.3781850000000002</v>
+      </c>
+      <c r="U55" s="16">
+        <v>8.6440820000000009</v>
+      </c>
+      <c r="V55" s="16">
+        <v>8.763751000000001</v>
+      </c>
+      <c r="W55" s="16">
+        <v>9.5745869999999993</v>
+      </c>
+      <c r="X55" s="16">
+        <v>9.7810640000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="18">
+        <v>30.86</v>
+      </c>
+      <c r="C56" s="18">
+        <v>23.901</v>
+      </c>
+      <c r="D56" s="18">
+        <v>26.991</v>
+      </c>
+      <c r="E56" s="18">
+        <v>29.265999999999998</v>
+      </c>
+      <c r="F56" s="18">
+        <v>27.234999999999999</v>
+      </c>
+      <c r="G56" s="18">
+        <v>30.704999999999998</v>
+      </c>
+      <c r="H56" s="18">
+        <v>26.404</v>
+      </c>
+      <c r="I56" s="18">
+        <v>28.196999999999999</v>
+      </c>
+      <c r="J56" s="18">
+        <v>26.434000000000001</v>
+      </c>
+      <c r="K56" s="18">
+        <v>24.018999999999998</v>
+      </c>
+      <c r="L56" s="18">
+        <v>26.315000000000001</v>
+      </c>
+      <c r="M56" s="18">
+        <v>19.877068999999999</v>
+      </c>
+      <c r="N56" s="18">
+        <v>24.130562999999999</v>
+      </c>
+      <c r="O56" s="18">
+        <v>26.343620999999999</v>
+      </c>
+      <c r="P56" s="18">
+        <v>13.832678</v>
+      </c>
+      <c r="Q56" s="18">
+        <v>14.556545</v>
+      </c>
+      <c r="R56" s="18">
+        <v>12.246047000000001</v>
+      </c>
+      <c r="S56" s="18">
+        <v>15.198416</v>
+      </c>
+      <c r="T56" s="18">
+        <v>10.542506999999999</v>
+      </c>
+      <c r="U56" s="18">
+        <v>5.8727089999999995</v>
+      </c>
+      <c r="V56" s="18">
+        <v>4.9435409999999997</v>
+      </c>
+      <c r="W56" s="18">
+        <v>7.3391339999999996</v>
+      </c>
+      <c r="X56" s="18">
+        <v>6.042878</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="16">
+        <v>11.513999999999999</v>
+      </c>
+      <c r="C57" s="16">
+        <v>15.146000000000001</v>
+      </c>
+      <c r="D57" s="16">
+        <v>18.369</v>
+      </c>
+      <c r="E57" s="16">
+        <v>19.367999999999999</v>
+      </c>
+      <c r="F57" s="16">
+        <v>21.048999999999999</v>
+      </c>
+      <c r="G57" s="16">
+        <v>23.068999999999999</v>
+      </c>
+      <c r="H57" s="16">
+        <v>21.76</v>
+      </c>
+      <c r="I57" s="16">
+        <v>21.986999999999998</v>
+      </c>
+      <c r="J57" s="16">
+        <v>21.884</v>
+      </c>
+      <c r="K57" s="16">
+        <v>20.503</v>
+      </c>
+      <c r="L57" s="16">
+        <v>23.757999999999999</v>
+      </c>
+      <c r="M57" s="16">
+        <v>29.489144</v>
+      </c>
+      <c r="N57" s="16">
+        <v>22.753254000000002</v>
+      </c>
+      <c r="O57" s="16">
+        <v>18.393269</v>
+      </c>
+      <c r="P57" s="16">
+        <v>13.162876000000001</v>
+      </c>
+      <c r="Q57" s="16">
+        <v>21.143152999999998</v>
+      </c>
+      <c r="R57" s="16">
+        <v>34.967086000000002</v>
+      </c>
+      <c r="S57" s="16">
+        <v>40.500366</v>
+      </c>
+      <c r="T57" s="16">
+        <v>30.611537000000002</v>
+      </c>
+      <c r="U57" s="16">
+        <v>39.313589</v>
+      </c>
+      <c r="V57" s="16">
+        <v>35.245131999999998</v>
+      </c>
+      <c r="W57" s="16">
+        <v>33.286339999999996</v>
+      </c>
+      <c r="X57" s="16">
+        <v>45.740707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A58" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18">
+        <v>6.2237000000000001E-2</v>
+      </c>
+      <c r="N58" s="18">
+        <v>5.6513000000000001E-2</v>
+      </c>
+      <c r="O58" s="18">
+        <v>9.0150999999999995E-2</v>
+      </c>
+      <c r="P58" s="18">
+        <v>8.3113000000000006E-2</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>9.1938999999999993E-2</v>
+      </c>
+      <c r="R58" s="18">
+        <v>9.7604999999999997E-2</v>
+      </c>
+      <c r="S58" s="18">
+        <v>0.13313</v>
+      </c>
+      <c r="T58" s="18">
+        <v>0.126975</v>
+      </c>
+      <c r="U58" s="18">
+        <v>0.12848599999999999</v>
+      </c>
+      <c r="V58" s="18">
+        <v>0.13319900000000001</v>
+      </c>
+      <c r="W58" s="18">
+        <v>0.10030800000000001</v>
+      </c>
+      <c r="X58" s="18">
+        <v>0.113595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="16">
+        <v>71.133248999999992</v>
+      </c>
+      <c r="C59" s="16">
+        <v>78.511426999999998</v>
+      </c>
+      <c r="D59" s="16">
+        <v>65.830612000000002</v>
+      </c>
+      <c r="E59" s="16">
+        <v>64.278639999999996</v>
+      </c>
+      <c r="F59" s="16">
+        <v>64.898935000000009</v>
+      </c>
+      <c r="G59" s="16">
+        <v>56.331876999999999</v>
+      </c>
+      <c r="H59" s="16">
+        <v>61.741697000000002</v>
+      </c>
+      <c r="I59" s="16">
+        <v>63.259416999999992</v>
+      </c>
+      <c r="J59" s="16">
+        <v>68.367660999999998</v>
+      </c>
+      <c r="K59" s="16">
+        <v>61.966200000000008</v>
+      </c>
+      <c r="L59" s="16">
+        <v>67.525616999999997</v>
+      </c>
+      <c r="M59" s="16">
+        <v>50.893014000000001</v>
+      </c>
+      <c r="N59" s="16">
+        <v>64.759506000000002</v>
+      </c>
+      <c r="O59" s="16">
+        <v>77.070960999999997</v>
+      </c>
+      <c r="P59" s="16">
+        <v>69.570008000000001</v>
+      </c>
+      <c r="Q59" s="16">
+        <v>60.513362999999998</v>
+      </c>
+      <c r="R59" s="16">
+        <v>65.685547999999997</v>
+      </c>
+      <c r="S59" s="16">
+        <v>55.134909999999998</v>
+      </c>
+      <c r="T59" s="16">
+        <v>70.472115000000002</v>
+      </c>
+      <c r="U59" s="16">
+        <v>61.572316000000001</v>
+      </c>
+      <c r="V59" s="16">
+        <v>67.094319999999996</v>
+      </c>
+      <c r="W59" s="16">
+        <v>63.946742000000008</v>
+      </c>
+      <c r="X59" s="16">
+        <v>51.049095999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A60" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="18">
+        <v>415.16199999999998</v>
+      </c>
+      <c r="C60" s="18">
+        <v>421.07600000000002</v>
+      </c>
+      <c r="D60" s="18">
+        <v>436.76</v>
+      </c>
+      <c r="E60" s="18">
+        <v>441.07</v>
+      </c>
+      <c r="F60" s="18">
+        <v>448.24099999999999</v>
+      </c>
+      <c r="G60" s="18">
+        <v>451.529</v>
+      </c>
+      <c r="H60" s="18">
+        <v>450.19099999999997</v>
+      </c>
+      <c r="I60" s="18">
+        <v>439.73</v>
+      </c>
+      <c r="J60" s="18">
+        <v>439.447</v>
+      </c>
+      <c r="K60" s="18">
+        <v>409.73599999999999</v>
+      </c>
+      <c r="L60" s="18">
+        <v>428.52100000000002</v>
+      </c>
+      <c r="M60" s="18">
+        <v>442.38776299999995</v>
+      </c>
+      <c r="N60" s="18">
+        <v>425.40601700000002</v>
+      </c>
+      <c r="O60" s="18">
+        <v>423.68467099999998</v>
+      </c>
+      <c r="P60" s="18">
+        <v>436.47900900000002</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>437.42780800000003</v>
+      </c>
+      <c r="R60" s="18">
+        <v>403.19548200000003</v>
+      </c>
+      <c r="S60" s="18">
+        <v>398.359129</v>
+      </c>
+      <c r="T60" s="18">
+        <v>412.94181199999997</v>
+      </c>
+      <c r="U60" s="18">
+        <v>399.01158700000002</v>
+      </c>
+      <c r="V60" s="18">
+        <v>353.83286700000002</v>
+      </c>
+      <c r="W60" s="18">
+        <v>379.36129199999999</v>
+      </c>
+      <c r="X60" s="18">
+        <v>294.73103800000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="16">
+        <v>8.2460000000000004</v>
+      </c>
+      <c r="C61" s="16">
+        <v>7.4249999999999998</v>
+      </c>
+      <c r="D61" s="16">
+        <v>7.3040000000000003</v>
+      </c>
+      <c r="E61" s="16">
+        <v>8.7430000000000003</v>
+      </c>
+      <c r="F61" s="16">
+        <v>8.2449999999999992</v>
+      </c>
+      <c r="G61" s="16">
+        <v>9.5820000000000007</v>
+      </c>
+      <c r="H61" s="16">
+        <v>8.7379999999999995</v>
+      </c>
+      <c r="I61" s="16">
+        <v>8.2910000000000004</v>
+      </c>
+      <c r="J61" s="16">
+        <v>7.5021120000000003</v>
+      </c>
+      <c r="K61" s="16">
+        <v>7.0371969999999999</v>
+      </c>
+      <c r="L61" s="16">
+        <v>7.6861130000000006</v>
+      </c>
+      <c r="M61" s="16">
+        <v>10.192698</v>
+      </c>
+      <c r="N61" s="16">
+        <v>10.320116000000001</v>
+      </c>
+      <c r="O61" s="16">
+        <v>9.3096980000000009</v>
+      </c>
+      <c r="P61" s="16">
+        <v>9.2767210000000002</v>
+      </c>
+      <c r="Q61" s="16">
+        <v>9.5215200000000006</v>
+      </c>
+      <c r="R61" s="16">
+        <v>9.8005120000000012</v>
+      </c>
+      <c r="S61" s="16">
+        <v>10.117649999999999</v>
+      </c>
+      <c r="T61" s="16">
+        <v>8.7252700000000001</v>
+      </c>
+      <c r="U61" s="16">
+        <v>8.8661490000000018</v>
+      </c>
+      <c r="V61" s="16">
+        <v>8.525974999999999</v>
+      </c>
+      <c r="W61" s="16">
+        <v>8.5136489999999991</v>
+      </c>
+      <c r="X61" s="16">
+        <v>9.1636629999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="18">
+        <v>5.2230000000000002E-3</v>
+      </c>
+      <c r="C62" s="18">
+        <v>6.1609999999999998E-3</v>
+      </c>
+      <c r="D62" s="18">
+        <v>7.1040000000000001E-3</v>
+      </c>
+      <c r="E62" s="18">
+        <v>7.7670000000000005E-3</v>
+      </c>
+      <c r="F62" s="18">
+        <v>8.4480000000000006E-3</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1.0501E-2</v>
+      </c>
+      <c r="H62" s="18">
+        <v>1.2102999999999999E-2</v>
+      </c>
+      <c r="I62" s="18">
+        <v>1.7572000000000001E-2</v>
+      </c>
+      <c r="J62" s="18">
+        <v>4.1692E-2</v>
+      </c>
+      <c r="K62" s="18">
+        <v>0.17397100000000001</v>
+      </c>
+      <c r="L62" s="18">
+        <v>0.62</v>
+      </c>
+      <c r="M62" s="18">
+        <v>2.333809</v>
+      </c>
+      <c r="N62" s="18">
+        <v>4.4279390000000003</v>
+      </c>
+      <c r="O62" s="18">
+        <v>5.1935979999999997</v>
+      </c>
+      <c r="P62" s="18">
+        <v>6.3916199999999996</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>7.7538210000000003</v>
+      </c>
+      <c r="R62" s="18">
+        <v>8.6599590000000006</v>
+      </c>
+      <c r="S62" s="18">
+        <v>9.586608</v>
+      </c>
+      <c r="T62" s="18">
+        <v>10.808149999999999</v>
+      </c>
+      <c r="U62" s="18">
+        <v>12.165281999999999</v>
+      </c>
+      <c r="V62" s="18">
+        <v>13.189172000000001</v>
+      </c>
+      <c r="W62" s="18">
+        <v>15.356909999999999</v>
+      </c>
+      <c r="X62" s="18">
+        <v>19.984625000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="16">
+        <v>4.8159999999999994E-2</v>
+      </c>
+      <c r="C63" s="16">
+        <v>0.13124</v>
+      </c>
+      <c r="D63" s="16">
+        <v>0.26558999999999999</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0.38774999999999998</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0.59484999999999999</v>
+      </c>
+      <c r="G63" s="16">
+        <v>0.96257000000000004</v>
+      </c>
+      <c r="H63" s="16">
+        <v>2.1825799999999997</v>
+      </c>
+      <c r="I63" s="16">
+        <v>4.0701100000000006</v>
+      </c>
+      <c r="J63" s="16">
+        <v>5.69421</v>
+      </c>
+      <c r="K63" s="16">
+        <v>7.9115699999999993</v>
+      </c>
+      <c r="L63" s="16">
+        <v>9.9449900000000007</v>
+      </c>
+      <c r="M63" s="16">
+        <v>12.371619000000001</v>
+      </c>
+      <c r="N63" s="16">
+        <v>15.1784</v>
+      </c>
+      <c r="O63" s="16">
+        <v>16.137004999999998</v>
+      </c>
+      <c r="P63" s="16">
+        <v>17.323777</v>
+      </c>
+      <c r="Q63" s="16">
+        <v>21.420601999999999</v>
+      </c>
+      <c r="R63" s="16">
+        <v>21.380984999999999</v>
+      </c>
+      <c r="S63" s="16">
+        <v>24.609437000000003</v>
+      </c>
+      <c r="T63" s="16">
+        <v>28.598595</v>
+      </c>
+      <c r="U63" s="16">
+        <v>34.721682999999999</v>
+      </c>
+      <c r="V63" s="16">
+        <v>40.045404000000005</v>
+      </c>
+      <c r="W63" s="16">
+        <v>37.119413000000002</v>
+      </c>
+      <c r="X63" s="16">
+        <v>38.004227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A68" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C68" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D68" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E68" s="10">
+        <v>2003</v>
+      </c>
+      <c r="F68" s="10">
+        <v>2004</v>
+      </c>
+      <c r="G68" s="10">
+        <v>2005</v>
+      </c>
+      <c r="H68" s="10">
+        <v>2006</v>
+      </c>
+      <c r="I68" s="10">
+        <v>2007</v>
+      </c>
+      <c r="J68" s="10">
+        <v>2008</v>
+      </c>
+      <c r="K68" s="10">
+        <v>2009</v>
+      </c>
+      <c r="L68" s="10">
+        <v>2010</v>
+      </c>
+      <c r="M68" s="10">
+        <v>2011</v>
+      </c>
+      <c r="N68" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O68" s="10">
+        <v>2013</v>
+      </c>
+      <c r="P68" s="10">
+        <v>2014</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>2015</v>
+      </c>
+      <c r="R68" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S68" s="10">
+        <v>2017</v>
+      </c>
+      <c r="T68" s="10">
+        <v>2018</v>
+      </c>
+      <c r="U68" s="10">
+        <v>2019</v>
+      </c>
+      <c r="V68" s="10">
+        <v>2020</v>
+      </c>
+      <c r="W68" s="10">
+        <v>2021</v>
+      </c>
+      <c r="X68" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>2023</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A69" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="15">
+        <v>0.432</v>
+      </c>
+      <c r="C69" s="15">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D69" s="15">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="E69" s="15">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="F69" s="15">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="G69" s="15">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="H69" s="15">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="I69" s="15">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="J69" s="15">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="K69" s="15">
+        <v>0.8175</v>
+      </c>
+      <c r="L69" s="15">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="M69" s="15">
+        <v>1.1749360000000002</v>
+      </c>
+      <c r="N69" s="15">
+        <v>1.281048</v>
+      </c>
+      <c r="O69" s="15">
+        <v>1.4079560000000002</v>
+      </c>
+      <c r="P69" s="15">
+        <v>1.4632609999999999</v>
+      </c>
+      <c r="Q69" s="15">
+        <v>1.531277</v>
+      </c>
+      <c r="R69" s="15">
+        <v>1.6606730000000001</v>
+      </c>
+      <c r="S69" s="15">
+        <v>1.7124410000000001</v>
+      </c>
+      <c r="T69" s="15">
+        <v>1.9245109999999999</v>
+      </c>
+      <c r="U69" s="15">
+        <v>2.0081630000000001</v>
+      </c>
+      <c r="V69" s="15">
+        <v>1.931778</v>
+      </c>
+      <c r="W69" s="15">
+        <v>2.0463560000000003</v>
+      </c>
+      <c r="X69" s="15">
+        <v>2.0585360000000001</v>
+      </c>
+      <c r="Y69" s="15">
+        <v>2.0904589999999996</v>
+      </c>
+      <c r="Z69" s="15">
+        <v>3.3514589999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A70" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17">
+        <v>1.49E-2</v>
+      </c>
+      <c r="N70" s="17">
+        <v>1.35E-2</v>
+      </c>
+      <c r="O70" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P70" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q70" s="17">
+        <v>1.4749999999999999E-2</v>
+      </c>
+      <c r="R70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+      <c r="S70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+      <c r="T70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+      <c r="U70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+      <c r="V70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+      <c r="W70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+      <c r="X70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+      <c r="Y70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+      <c r="Z70" s="17">
+        <v>1.6149999999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="15">
+        <v>25.154</v>
+      </c>
+      <c r="C71" s="15">
+        <v>25.178999999999998</v>
+      </c>
+      <c r="D71" s="15">
+        <v>25.277999999999999</v>
+      </c>
+      <c r="E71" s="15">
+        <v>25.23</v>
+      </c>
+      <c r="F71" s="15">
+        <v>25.117000000000001</v>
+      </c>
+      <c r="G71" s="15">
+        <v>25.13</v>
+      </c>
+      <c r="H71" s="15">
+        <v>25.141999999999999</v>
+      </c>
+      <c r="I71" s="15">
+        <v>25.155000000000001</v>
+      </c>
+      <c r="J71" s="15">
+        <v>25.12</v>
+      </c>
+      <c r="K71" s="15">
+        <v>25.207999999999998</v>
+      </c>
+      <c r="L71" s="15">
+        <v>25.425000000000001</v>
+      </c>
+      <c r="M71" s="15">
+        <v>25.641577000000002</v>
+      </c>
+      <c r="N71" s="15">
+        <v>25.655922999999998</v>
+      </c>
+      <c r="O71" s="15">
+        <v>25.645355000000002</v>
+      </c>
+      <c r="P71" s="15">
+        <v>25.526268000000002</v>
+      </c>
+      <c r="Q71" s="15">
+        <v>25.551829000000001</v>
+      </c>
+      <c r="R71" s="15">
+        <v>25.620853000000004</v>
+      </c>
+      <c r="S71" s="15">
+        <v>25.706938000000001</v>
+      </c>
+      <c r="T71" s="15">
+        <v>25.726934</v>
+      </c>
+      <c r="U71" s="15">
+        <v>25.868384000000002</v>
+      </c>
+      <c r="V71" s="15">
+        <v>25.954382000000003</v>
+      </c>
+      <c r="W71" s="15">
+        <v>25.990796000000003</v>
+      </c>
+      <c r="X71" s="15">
+        <v>25.963666</v>
+      </c>
+      <c r="Y71" s="15">
+        <v>26.325191</v>
+      </c>
+      <c r="Z71" s="15">
+        <v>26.846190999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="17">
+        <v>63.183</v>
+      </c>
+      <c r="C72" s="17">
+        <v>63.183</v>
+      </c>
+      <c r="D72" s="17">
+        <v>63.273000000000003</v>
+      </c>
+      <c r="E72" s="17">
+        <v>63.363</v>
+      </c>
+      <c r="F72" s="17">
+        <v>63.363</v>
+      </c>
+      <c r="G72" s="17">
+        <v>63.26</v>
+      </c>
+      <c r="H72" s="17">
+        <v>63.26</v>
+      </c>
+      <c r="I72" s="17">
+        <v>63.26</v>
+      </c>
+      <c r="J72" s="17">
+        <v>63.26</v>
+      </c>
+      <c r="K72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="L72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="M72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="N72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="O72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="P72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="R72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="S72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="T72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="U72" s="17">
+        <v>63.13</v>
+      </c>
+      <c r="V72" s="17">
+        <v>61.4</v>
+      </c>
+      <c r="W72" s="17">
+        <v>61.4</v>
+      </c>
+      <c r="X72" s="17">
+        <v>61.4</v>
+      </c>
+      <c r="Y72" s="17">
+        <v>61.4</v>
+      </c>
+      <c r="Z72" s="17">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A73" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="15">
+        <v>25.491</v>
+      </c>
+      <c r="C73" s="15">
+        <v>26.4</v>
+      </c>
+      <c r="D73" s="15">
+        <v>27.1815</v>
+      </c>
+      <c r="E73" s="15">
+        <v>26.804500000000001</v>
+      </c>
+      <c r="F73" s="15">
+        <v>26.499500000000001</v>
+      </c>
+      <c r="G73" s="15">
+        <v>25.788</v>
+      </c>
+      <c r="H73" s="15">
+        <v>25.0075</v>
+      </c>
+      <c r="I73" s="15">
+        <v>24.806999999999999</v>
+      </c>
+      <c r="J73" s="15">
+        <v>24.705500000000001</v>
+      </c>
+      <c r="K73" s="15">
+        <v>26.291499999999999</v>
+      </c>
+      <c r="L73" s="15">
+        <v>27.483499999999999</v>
+      </c>
+      <c r="M73" s="15">
+        <v>27.429006000000001</v>
+      </c>
+      <c r="N73" s="15">
+        <v>26.576404</v>
+      </c>
+      <c r="O73" s="15">
+        <v>24.455964999999999</v>
+      </c>
+      <c r="P73" s="15">
+        <v>22.754127</v>
+      </c>
+      <c r="Q73" s="15">
+        <v>24.463165</v>
+      </c>
+      <c r="R73" s="15">
+        <v>23.193792000000002</v>
+      </c>
+      <c r="S73" s="15">
+        <v>20.150646000000002</v>
+      </c>
+      <c r="T73" s="15">
+        <v>18.830272999999998</v>
+      </c>
+      <c r="U73" s="15">
+        <v>18.777677000000001</v>
+      </c>
+      <c r="V73" s="15">
+        <v>19.048099000000001</v>
+      </c>
+      <c r="W73" s="15">
+        <v>19.364996999999999</v>
+      </c>
+      <c r="X73" s="15">
+        <v>20.934428</v>
+      </c>
+      <c r="Y73" s="15">
+        <v>19.744399000000001</v>
+      </c>
+      <c r="Z73" s="15">
+        <v>18.819399000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C74" s="17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D74" s="17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E74" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F74" s="17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G74" s="17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H74" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I74" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J74" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="K74" s="17">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="L74" s="17">
+        <v>1.044</v>
+      </c>
+      <c r="M74" s="17">
+        <v>2.9885770000000003</v>
+      </c>
+      <c r="N74" s="17">
+        <v>4.3007569999999999</v>
+      </c>
+      <c r="O74" s="17">
+        <v>5.1602830000000006</v>
+      </c>
+      <c r="P74" s="17">
+        <v>5.8614049999999995</v>
+      </c>
+      <c r="Q74" s="17">
+        <v>6.8195389999999998</v>
+      </c>
+      <c r="R74" s="17">
+        <v>7.3190770000000001</v>
+      </c>
+      <c r="S74" s="17">
+        <v>8.1004109999999994</v>
+      </c>
+      <c r="T74" s="17">
+        <v>9.0316399999999994</v>
+      </c>
+      <c r="U74" s="17">
+        <v>10.01318</v>
+      </c>
+      <c r="V74" s="17">
+        <v>11.133255999999999</v>
+      </c>
+      <c r="W74" s="17">
+        <v>13.446042</v>
+      </c>
+      <c r="X74" s="17">
+        <v>14.721789000000001</v>
+      </c>
+      <c r="Y74" s="17">
+        <v>17.399135999999999</v>
+      </c>
+      <c r="Z74" s="17">
+        <v>21.528088</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C75" s="15">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E75" s="15">
+        <v>0.218</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="I75" s="15">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="J75" s="15">
+        <v>3.403</v>
+      </c>
+      <c r="K75" s="15">
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="L75" s="15">
+        <v>5.9119999999999999</v>
+      </c>
+      <c r="M75" s="15">
+        <v>6.7580160000000005</v>
+      </c>
+      <c r="N75" s="15">
+        <v>7.6074960000000003</v>
+      </c>
+      <c r="O75" s="15">
+        <v>8.1601309999999998</v>
+      </c>
+      <c r="P75" s="15">
+        <v>9.201394999999998</v>
+      </c>
+      <c r="Q75" s="15">
+        <v>10.298146999999998</v>
+      </c>
+      <c r="R75" s="15">
+        <v>11.566561999999999</v>
+      </c>
+      <c r="S75" s="15">
+        <v>13.499351999999998</v>
+      </c>
+      <c r="T75" s="15">
+        <v>14.900143</v>
+      </c>
+      <c r="U75" s="15">
+        <v>16.426852</v>
+      </c>
+      <c r="V75" s="15">
+        <v>17.535273</v>
+      </c>
+      <c r="W75" s="15">
+        <v>18.551120999999998</v>
+      </c>
+      <c r="X75" s="15">
+        <v>20.835175</v>
+      </c>
+      <c r="Y75" s="15">
+        <v>23.131614000000003</v>
+      </c>
+      <c r="Z75" s="15">
+        <v>24.591614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A86" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="10">
+        <v>2001</v>
+      </c>
+      <c r="E86" s="10">
+        <v>2002</v>
+      </c>
+      <c r="F86" s="10">
+        <v>2003</v>
+      </c>
+      <c r="G86" s="10">
+        <v>2004</v>
+      </c>
+      <c r="H86" s="10">
+        <v>2005</v>
+      </c>
+      <c r="I86" s="10">
+        <v>2006</v>
+      </c>
+      <c r="J86" s="10">
+        <v>2007</v>
+      </c>
+      <c r="K86" s="10">
+        <v>2008</v>
+      </c>
+      <c r="L86" s="10">
+        <v>2009</v>
+      </c>
+      <c r="M86" s="10">
+        <v>2010</v>
+      </c>
+      <c r="N86" s="10">
+        <v>2011</v>
+      </c>
+      <c r="O86" s="10">
+        <v>2012</v>
+      </c>
+      <c r="P86" s="10">
+        <v>2013</v>
+      </c>
+      <c r="Q86" s="10">
+        <v>2014</v>
+      </c>
+      <c r="R86" s="10">
+        <v>2015</v>
+      </c>
+      <c r="S86" s="10">
+        <v>2016</v>
+      </c>
+      <c r="T86" s="10">
+        <v>2017</v>
+      </c>
+      <c r="U86" s="10">
+        <v>2018</v>
+      </c>
+      <c r="V86" s="10">
+        <v>2019</v>
+      </c>
+      <c r="W86" s="10">
+        <v>2020</v>
+      </c>
+      <c r="X86" s="10">
+        <v>2021</v>
+      </c>
+      <c r="Y86" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Z86" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A87" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="16">
+        <v>0</v>
+      </c>
+      <c r="D87" s="16">
+        <v>0</v>
+      </c>
+      <c r="E87" s="16">
+        <v>0</v>
+      </c>
+      <c r="F87" s="16">
+        <v>0</v>
+      </c>
+      <c r="G87" s="16">
+        <v>0</v>
+      </c>
+      <c r="H87" s="16">
+        <v>0</v>
+      </c>
+      <c r="I87" s="16">
+        <v>0</v>
+      </c>
+      <c r="J87" s="16">
+        <v>0</v>
+      </c>
+      <c r="K87" s="16">
+        <v>0</v>
+      </c>
+      <c r="L87" s="16">
+        <v>0</v>
+      </c>
+      <c r="M87" s="16">
+        <v>0</v>
+      </c>
+      <c r="N87" s="16">
+        <v>0</v>
+      </c>
+      <c r="O87" s="16">
+        <v>0</v>
+      </c>
+      <c r="P87" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="16">
+        <v>0</v>
+      </c>
+      <c r="R87" s="16">
+        <v>0</v>
+      </c>
+      <c r="S87" s="16">
+        <v>0</v>
+      </c>
+      <c r="T87" s="16">
+        <v>0</v>
+      </c>
+      <c r="U87" s="16">
+        <v>0</v>
+      </c>
+      <c r="V87" s="16">
+        <v>0</v>
+      </c>
+      <c r="W87" s="16">
+        <v>0</v>
+      </c>
+      <c r="X87" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="16">
+        <v>14.94</v>
+      </c>
+      <c r="Z87" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A88" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="18">
+        <v>69.48</v>
+      </c>
+      <c r="D88" s="18">
+        <v>68.39</v>
+      </c>
+      <c r="E88" s="18">
+        <v>77.03</v>
+      </c>
+      <c r="F88" s="18">
+        <v>66.41</v>
+      </c>
+      <c r="G88" s="18">
+        <v>61.91</v>
+      </c>
+      <c r="H88" s="18">
+        <v>60.33</v>
+      </c>
+      <c r="I88" s="18">
+        <v>63.34</v>
+      </c>
+      <c r="J88" s="18">
+        <v>56.81</v>
+      </c>
+      <c r="K88" s="18">
+        <v>47.99</v>
+      </c>
+      <c r="L88" s="18">
+        <v>25.93</v>
+      </c>
+      <c r="M88" s="18">
+        <v>30.71</v>
+      </c>
+      <c r="N88" s="18">
+        <v>56.41</v>
+      </c>
+      <c r="O88" s="18">
+        <v>44.52</v>
+      </c>
+      <c r="P88" s="18">
+        <v>48.46</v>
+      </c>
+      <c r="Q88" s="18">
+        <v>67.19</v>
+      </c>
+      <c r="R88" s="18">
+        <v>64.06</v>
+      </c>
+      <c r="S88" s="18">
+        <v>41.5</v>
+      </c>
+      <c r="T88" s="18">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="U88" s="18">
+        <v>62.97</v>
+      </c>
+      <c r="V88" s="18">
+        <v>57.67</v>
+      </c>
+      <c r="W88" s="18">
+        <v>45.04</v>
+      </c>
+      <c r="X88" s="18">
+        <v>44.89</v>
+      </c>
+      <c r="Y88" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="18">
+        <v>50.34</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Y1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B3135-6A18-4C8E-A4D8-D6CC0C5F3CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A2DBDB-A89F-4AC9-A6C6-0511F5EB24A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A2DBDB-A89F-4AC9-A6C6-0511F5EB24A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99C439-5E83-40A5-85F1-883C9A8F8C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99C439-5E83-40A5-85F1-883C9A8F8C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA704C-F983-413F-BBFD-2D08B088F19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="78">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -323,6 +323,12 @@
     <t>Import</t>
   </si>
   <si>
+    <t>UCE_max nuclear capacity</t>
+  </si>
+  <si>
+    <t>UC_RHSRT~2050</t>
+  </si>
+  <si>
     <t>geothermal</t>
   </si>
 </sst>
@@ -370,20 +376,20 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -810,9 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -832,29 +840,30 @@
     <col min="20" max="20" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="AA1">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AB1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
@@ -871,7 +880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -894,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -919,7 +928,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -942,7 +951,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>0.28000000000000003</v>
       </c>
@@ -957,7 +966,7 @@
         <v>0.15496417492770403</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -970,11 +979,11 @@
       <c r="U6" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1012,41 +1021,44 @@
       <c r="X7" t="s">
         <v>15</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7">
         <v>2022</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2050</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>17</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>13</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>2</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>18</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>2050</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>16</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1081,50 +1093,50 @@
       <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="3">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <f>VLOOKUP(V8,$F$3:$J$11,3,FALSE)</f>
         <v>0.43129337356808434</v>
       </c>
-      <c r="Z8" s="3">
-        <f>Y8*$AA$1</f>
+      <c r="AA8" s="3">
+        <f>Z8*$AB$1</f>
         <v>0.4744227109248928</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>3</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>5</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AG8" s="3">
-        <f>VLOOKUP(AE8,$F$3:$J$11,2,FALSE)</f>
+      <c r="AI8" s="3">
+        <f>VLOOKUP(AG8,$F$3:$J$11,2,FALSE)</f>
         <v>9.4315434766683762E-2</v>
       </c>
-      <c r="AH8">
-        <f>AG8*$AC$1</f>
+      <c r="AJ8">
+        <f>AI8*$AD$1</f>
         <v>8.488389129001539E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -1149,50 +1161,50 @@
       <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="3">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <f>VLOOKUP(V9,$F$3:$J$11,3,FALSE)</f>
         <v>0.29350540681363757</v>
       </c>
-      <c r="Z9" s="3">
-        <f>Y9*$AA$1</f>
+      <c r="AA9" s="3">
+        <f>Z9*$AB$1</f>
         <v>0.32285594749500135</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>3</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>8</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AG9" s="3">
-        <f>VLOOKUP(AE9,$F$3:$J$11,2,FALSE)</f>
+      <c r="AI9" s="3">
+        <f>VLOOKUP(AG9,$F$3:$J$11,2,FALSE)</f>
         <v>5.1995525945360881E-2</v>
       </c>
-      <c r="AH9">
-        <f>AG9*$AC$1</f>
+      <c r="AJ9">
+        <f>AI9*$AD$1</f>
         <v>4.679597335082479E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1221,7 @@
         <v>0.15496417492770403</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>12</v>
       </c>
@@ -1226,12 +1238,15 @@
         <v>0.26069700487040792</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="U13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1241,8 +1256,38 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="U14" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>2022</v>
+      </c>
+      <c r="AA14">
+        <v>2050</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1256,8 +1301,28 @@
       <c r="L15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f>SUMIFS(historical_data_long!$D$3:$D$626,historical_data_long!$A$3:$A$626,Veda!$V15,historical_data_long!$C$3:$C$626,"GW",historical_data_long!$B$3:$B$626,2022)</f>
+        <v>61.4</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <f>AB15*2.5</f>
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
         <v>31</v>
       </c>
@@ -1510,7 +1575,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -1524,7 +1589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
@@ -1538,7 +1603,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1631,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1645,7 @@
         <v>64.78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1594,7 +1659,7 @@
         <v>415.16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1673,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
@@ -1622,7 +1687,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1636,7 +1701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1650,7 +1715,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -1664,7 +1729,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1743,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
@@ -1692,7 +1757,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
@@ -1706,7 +1771,7 @@
         <v>72.62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1785,7 @@
         <v>421.08</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1734,7 +1799,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1748,7 +1813,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -1762,7 +1827,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1841,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
@@ -1790,7 +1855,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1869,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1883,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1897,7 @@
         <v>58.88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -1846,7 +1911,7 @@
         <v>436.76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
@@ -1860,7 +1925,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>66</v>
       </c>
@@ -1874,7 +1939,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1953,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>12</v>
       </c>
@@ -1902,7 +1967,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1981,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>5</v>
       </c>
@@ -1930,7 +1995,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +2009,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +2023,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1972,7 +2037,7 @@
         <v>441.07</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>23</v>
       </c>
@@ -1986,7 +2051,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2065,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
@@ -2014,7 +2079,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2093,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -2042,7 +2107,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2121,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
         <v>8</v>
       </c>
@@ -2070,7 +2135,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2149,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
@@ -2098,7 +2163,7 @@
         <v>448.24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2177,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>66</v>
       </c>
@@ -2126,7 +2191,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
         <v>9</v>
       </c>
@@ -2140,7 +2205,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>12</v>
       </c>
@@ -2154,7 +2219,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
         <v>66</v>
       </c>
@@ -2168,7 +2233,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2247,7 @@
         <v>27.51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2261,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2275,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
         <v>19</v>
       </c>
@@ -2224,7 +2289,7 @@
         <v>451.53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>23</v>
       </c>
@@ -2238,7 +2303,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>66</v>
       </c>
@@ -2252,7 +2317,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
@@ -2266,7 +2331,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2345,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
         <v>66</v>
       </c>
@@ -2294,7 +2359,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2373,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>8</v>
       </c>
@@ -2322,7 +2387,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
         <v>6</v>
       </c>
@@ -2336,7 +2401,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2415,7 @@
         <v>450.19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="12" t="s">
         <v>23</v>
       </c>
@@ -2364,7 +2429,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>66</v>
       </c>
@@ -2378,7 +2443,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
         <v>9</v>
       </c>
@@ -2392,7 +2457,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>12</v>
       </c>
@@ -2406,7 +2471,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>66</v>
       </c>
@@ -2420,7 +2485,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
         <v>5</v>
       </c>
@@ -2434,7 +2499,7 @@
         <v>24.45</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +2513,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2527,7 @@
         <v>55.99</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>19</v>
       </c>
@@ -2476,7 +2541,7 @@
         <v>439.73</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>23</v>
       </c>
@@ -2490,7 +2555,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
         <v>66</v>
       </c>
@@ -2504,7 +2569,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>9</v>
       </c>
@@ -2518,7 +2583,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="12" t="s">
         <v>12</v>
       </c>
@@ -2532,7 +2597,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>66</v>
       </c>
@@ -2546,7 +2611,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="12" t="s">
         <v>5</v>
       </c>
@@ -2560,7 +2625,7 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +2639,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="12" t="s">
         <v>6</v>
       </c>
@@ -2588,7 +2653,7 @@
         <v>62.16</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>19</v>
       </c>
@@ -2602,7 +2667,7 @@
         <v>439.45</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="12" t="s">
         <v>23</v>
       </c>
@@ -2616,7 +2681,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
         <v>66</v>
       </c>
@@ -2630,7 +2695,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="12" t="s">
         <v>9</v>
       </c>
@@ -2644,7 +2709,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +2723,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="12" t="s">
         <v>66</v>
       </c>
@@ -2672,7 +2737,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
         <v>5</v>
       </c>
@@ -2686,7 +2751,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="12" t="s">
         <v>8</v>
       </c>
@@ -2700,7 +2765,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="s">
         <v>6</v>
       </c>
@@ -2714,7 +2779,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="12" t="s">
         <v>19</v>
       </c>
@@ -2728,7 +2793,7 @@
         <v>409.74</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>23</v>
       </c>
@@ -2742,7 +2807,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="12" t="s">
         <v>66</v>
       </c>
@@ -2756,7 +2821,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +2835,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="12" t="s">
         <v>12</v>
       </c>
@@ -2784,7 +2849,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>66</v>
       </c>
@@ -2798,7 +2863,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="12" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2877,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>8</v>
       </c>
@@ -2826,7 +2891,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2905,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="10" t="s">
         <v>19</v>
       </c>
@@ -2854,7 +2919,7 @@
         <v>428.52</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="s">
         <v>23</v>
       </c>
@@ -2868,7 +2933,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
         <v>66</v>
       </c>
@@ -2882,7 +2947,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="12" t="s">
         <v>9</v>
       </c>
@@ -2896,7 +2961,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
@@ -2910,7 +2975,7 @@
         <v>9.94</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
         <v>66</v>
       </c>
@@ -2924,7 +2989,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="10" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +3003,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="12" t="s">
         <v>8</v>
       </c>
@@ -2952,7 +3017,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="10" t="s">
         <v>6</v>
       </c>
@@ -2966,7 +3031,7 @@
         <v>45.74</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="12" t="s">
         <v>19</v>
       </c>
@@ -2980,7 +3045,7 @@
         <v>442.39</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="s">
         <v>23</v>
       </c>
@@ -2994,7 +3059,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="12" t="s">
         <v>66</v>
       </c>
@@ -3008,7 +3073,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
@@ -3022,7 +3087,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="12" t="s">
         <v>12</v>
       </c>
@@ -3036,7 +3101,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="s">
         <v>66</v>
       </c>
@@ -3050,7 +3115,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="12" t="s">
         <v>5</v>
       </c>
@@ -3064,7 +3129,7 @@
         <v>21.46</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="10" t="s">
         <v>8</v>
       </c>
@@ -3078,7 +3143,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="12" t="s">
         <v>6</v>
       </c>
@@ -3092,7 +3157,7 @@
         <v>59.83</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="10" t="s">
         <v>19</v>
       </c>
@@ -3106,7 +3171,7 @@
         <v>425.41</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="12" t="s">
         <v>23</v>
       </c>
@@ -3120,7 +3185,7 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
         <v>66</v>
       </c>
@@ -3134,7 +3199,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="12" t="s">
         <v>9</v>
       </c>
@@ -3148,7 +3213,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="s">
         <v>12</v>
       </c>
@@ -3162,7 +3227,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="12" t="s">
         <v>66</v>
       </c>
@@ -3176,7 +3241,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>5</v>
       </c>
@@ -3190,7 +3255,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="12" t="s">
         <v>8</v>
       </c>
@@ -3204,7 +3269,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
         <v>6</v>
       </c>
@@ -3218,7 +3283,7 @@
         <v>71.92</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="12" t="s">
         <v>19</v>
       </c>
@@ -3232,7 +3297,7 @@
         <v>423.68</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="10" t="s">
         <v>23</v>
       </c>
@@ -3246,7 +3311,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="12" t="s">
         <v>66</v>
       </c>
@@ -3260,7 +3325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
         <v>9</v>
       </c>
@@ -3274,7 +3339,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="12" t="s">
         <v>12</v>
       </c>
@@ -3288,7 +3353,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
         <v>66</v>
       </c>
@@ -3302,7 +3367,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="12" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3381,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="s">
         <v>8</v>
       </c>
@@ -3330,7 +3395,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="12" t="s">
         <v>6</v>
       </c>
@@ -3344,7 +3409,7 @@
         <v>63.77</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="s">
         <v>19</v>
       </c>
@@ -3358,7 +3423,7 @@
         <v>436.48</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="12" t="s">
         <v>23</v>
       </c>
@@ -3372,7 +3437,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="s">
         <v>66</v>
       </c>
@@ -3386,7 +3451,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="12" t="s">
         <v>9</v>
       </c>
@@ -3400,7 +3465,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="10" t="s">
         <v>12</v>
       </c>
@@ -3414,7 +3479,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="12" t="s">
         <v>66</v>
       </c>
@@ -3428,7 +3493,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3507,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="12" t="s">
         <v>8</v>
       </c>
@@ -3456,7 +3521,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="10" t="s">
         <v>6</v>
       </c>
@@ -3470,7 +3535,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="12" t="s">
         <v>19</v>
       </c>
@@ -3484,7 +3549,7 @@
         <v>437.43</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="s">
         <v>23</v>
       </c>
@@ -3498,7 +3563,7 @@
         <v>11.81</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="12" t="s">
         <v>66</v>
       </c>
@@ -3512,7 +3577,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="s">
         <v>9</v>
       </c>
@@ -3526,7 +3591,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="12" t="s">
         <v>12</v>
       </c>
@@ -3540,7 +3605,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
         <v>66</v>
       </c>
@@ -3554,7 +3619,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="12" t="s">
         <v>5</v>
       </c>
@@ -3568,7 +3633,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="10" t="s">
         <v>8</v>
       </c>
@@ -3582,7 +3647,7 @@
         <v>34.97</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="12" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3661,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="10" t="s">
         <v>19</v>
       </c>
@@ -3610,7 +3675,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="12" t="s">
         <v>23</v>
       </c>
@@ -3624,7 +3689,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="s">
         <v>66</v>
       </c>
@@ -3638,7 +3703,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="12" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3717,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="s">
         <v>12</v>
       </c>
@@ -3666,7 +3731,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="12" t="s">
         <v>66</v>
       </c>
@@ -3680,7 +3745,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="10" t="s">
         <v>5</v>
       </c>
@@ -3694,7 +3759,7 @@
         <v>12.81</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="12" t="s">
         <v>8</v>
       </c>
@@ -3708,7 +3773,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="s">
         <v>6</v>
       </c>
@@ -3722,7 +3787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="12" t="s">
         <v>19</v>
       </c>
@@ -3736,7 +3801,7 @@
         <v>398.36</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="s">
         <v>23</v>
       </c>
@@ -3750,7 +3815,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="12" t="s">
         <v>66</v>
       </c>
@@ -3764,7 +3829,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="s">
         <v>9</v>
       </c>
@@ -3778,7 +3843,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="12" t="s">
         <v>12</v>
       </c>
@@ -3792,7 +3857,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="s">
         <v>66</v>
       </c>
@@ -3806,7 +3871,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="12" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +3885,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="10" t="s">
         <v>8</v>
       </c>
@@ -3834,7 +3899,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="12" t="s">
         <v>6</v>
       </c>
@@ -3848,7 +3913,7 @@
         <v>65.11</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="10" t="s">
         <v>19</v>
       </c>
@@ -3862,7 +3927,7 @@
         <v>412.94</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="12" t="s">
         <v>23</v>
       </c>
@@ -3876,7 +3941,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
         <v>66</v>
       </c>
@@ -3890,7 +3955,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="12" t="s">
         <v>9</v>
       </c>
@@ -3904,7 +3969,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="s">
         <v>12</v>
       </c>
@@ -3918,7 +3983,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="12" t="s">
         <v>66</v>
       </c>
@@ -3932,7 +3997,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="s">
         <v>5</v>
       </c>
@@ -3946,7 +4011,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="12" t="s">
         <v>8</v>
       </c>
@@ -3960,7 +4025,7 @@
         <v>39.31</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="10" t="s">
         <v>6</v>
       </c>
@@ -3974,7 +4039,7 @@
         <v>56.91</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="12" t="s">
         <v>19</v>
       </c>
@@ -3988,7 +4053,7 @@
         <v>399.01</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="s">
         <v>23</v>
       </c>
@@ -4002,7 +4067,7 @@
         <v>10.71</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="12" t="s">
         <v>66</v>
       </c>
@@ -4016,7 +4081,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="10" t="s">
         <v>9</v>
       </c>
@@ -4030,7 +4095,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="12" t="s">
         <v>12</v>
       </c>
@@ -4044,7 +4109,7 @@
         <v>34.72</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="s">
         <v>66</v>
       </c>
@@ -4058,7 +4123,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="12" t="s">
         <v>5</v>
       </c>
@@ -4072,7 +4137,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="10" t="s">
         <v>8</v>
       </c>
@@ -4086,7 +4151,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="12" t="s">
         <v>6</v>
       </c>
@@ -4100,7 +4165,7 @@
         <v>62.59</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="s">
         <v>19</v>
       </c>
@@ -4114,7 +4179,7 @@
         <v>353.83</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="12" t="s">
         <v>23</v>
       </c>
@@ -4128,7 +4193,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="s">
         <v>66</v>
       </c>
@@ -4142,7 +4207,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="12" t="s">
         <v>9</v>
       </c>
@@ -4156,7 +4221,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="10" t="s">
         <v>12</v>
       </c>
@@ -4170,7 +4235,7 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="12" t="s">
         <v>66</v>
       </c>
@@ -4184,7 +4249,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="10" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4263,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="12" t="s">
         <v>8</v>
       </c>
@@ -4212,7 +4277,7 @@
         <v>33.29</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="s">
         <v>6</v>
       </c>
@@ -4226,7 +4291,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="12" t="s">
         <v>19</v>
       </c>
@@ -4240,7 +4305,7 @@
         <v>379.36</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="10" t="s">
         <v>23</v>
       </c>
@@ -4254,7 +4319,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="12" t="s">
         <v>66</v>
       </c>
@@ -4268,7 +4333,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="10" t="s">
         <v>9</v>
       </c>
@@ -4282,7 +4347,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="12" t="s">
         <v>12</v>
       </c>
@@ -4296,7 +4361,7 @@
         <v>36.83</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="s">
         <v>66</v>
       </c>
@@ -4310,7 +4375,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="12" t="s">
         <v>5</v>
       </c>
@@ -4324,7 +4389,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="s">
         <v>8</v>
       </c>
@@ -4338,7 +4403,7 @@
         <v>45.74</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="12" t="s">
         <v>6</v>
       </c>
@@ -4352,7 +4417,7 @@
         <v>45.52</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="10" t="s">
         <v>19</v>
       </c>
@@ -4366,7 +4431,7 @@
         <v>294.73</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="12" t="s">
         <v>23</v>
       </c>
@@ -4380,7 +4445,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="s">
         <v>66</v>
       </c>
@@ -4394,7 +4459,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="12" t="s">
         <v>9</v>
       </c>
@@ -4408,7 +4473,7 @@
         <v>19.63</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="10" t="s">
         <v>12</v>
       </c>
@@ -4422,7 +4487,7 @@
         <v>38.56</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="12" t="s">
         <v>66</v>
       </c>
@@ -4436,7 +4501,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="10" t="s">
         <v>5</v>
       </c>
@@ -4450,7 +4515,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="12" t="s">
         <v>8</v>
       </c>
@@ -4464,7 +4529,7 @@
         <v>31.43</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="10" t="s">
         <v>6</v>
       </c>
@@ -4478,7 +4543,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="12" t="s">
         <v>19</v>
       </c>
@@ -4492,7 +4557,7 @@
         <v>335.65</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="10" t="s">
         <v>23</v>
       </c>
@@ -4506,7 +4571,7 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="s">
         <v>66</v>
       </c>
@@ -4520,7 +4585,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="10" t="s">
         <v>9</v>
       </c>
@@ -4534,7 +4599,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="12" t="s">
         <v>12</v>
       </c>
@@ -4548,7 +4613,7 @@
         <v>48.61</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="s">
         <v>66</v>
       </c>
@@ -4562,7 +4627,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="12" t="s">
         <v>5</v>
       </c>
@@ -4576,7 +4641,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="s">
         <v>8</v>
       </c>
@@ -4590,7 +4655,7 @@
         <v>25.27</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="12" t="s">
         <v>6</v>
       </c>
@@ -4604,7 +4669,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="10" t="s">
         <v>19</v>
       </c>
@@ -4618,7 +4683,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="12" t="s">
         <v>23</v>
       </c>
@@ -4632,7 +4697,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="s">
         <v>66</v>
       </c>
@@ -4646,7 +4711,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="12" t="s">
         <v>9</v>
       </c>
@@ -4660,7 +4725,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="s">
         <v>12</v>
       </c>
@@ -4674,7 +4739,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
         <v>66</v>
       </c>
@@ -4688,7 +4753,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="10" t="s">
         <v>5</v>
       </c>
@@ -4702,7 +4767,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="12" t="s">
         <v>8</v>
       </c>
@@ -4716,7 +4781,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="10" t="s">
         <v>6</v>
       </c>
@@ -4730,7 +4795,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="12" t="s">
         <v>19</v>
       </c>
@@ -4744,7 +4809,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="s">
         <v>23</v>
       </c>
@@ -4758,7 +4823,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="s">
         <v>66</v>
       </c>
@@ -4772,7 +4837,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="s">
         <v>9</v>
       </c>
@@ -4786,7 +4851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="12" t="s">
         <v>12</v>
       </c>
@@ -4800,7 +4865,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="s">
         <v>66</v>
       </c>
@@ -4814,7 +4879,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="12" t="s">
         <v>5</v>
       </c>
@@ -4828,7 +4893,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="s">
         <v>8</v>
       </c>
@@ -4842,7 +4907,7 @@
         <v>26.91</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="12" t="s">
         <v>6</v>
       </c>
@@ -4856,7 +4921,7 @@
         <v>23.42</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="10" t="s">
         <v>19</v>
       </c>
@@ -4870,7 +4935,7 @@
         <v>63.27</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="12" t="s">
         <v>23</v>
       </c>
@@ -4884,7 +4949,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
         <v>66</v>
       </c>
@@ -4898,7 +4963,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="12" t="s">
         <v>9</v>
       </c>
@@ -4912,7 +4977,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="10" t="s">
         <v>12</v>
       </c>
@@ -4926,7 +4991,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="s">
         <v>66</v>
       </c>
@@ -4940,7 +5005,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="10" t="s">
         <v>5</v>
       </c>
@@ -4954,7 +5019,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="12" t="s">
         <v>8</v>
       </c>
@@ -4968,7 +5033,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="10" t="s">
         <v>6</v>
       </c>
@@ -4982,7 +5047,7 @@
         <v>23.43</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="12" t="s">
         <v>19</v>
       </c>
@@ -4996,7 +5061,7 @@
         <v>63.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="s">
         <v>23</v>
       </c>
@@ -5010,7 +5075,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="s">
         <v>66</v>
       </c>
@@ -5024,7 +5089,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="10" t="s">
         <v>9</v>
       </c>
@@ -5038,7 +5103,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="12" t="s">
         <v>12</v>
       </c>
@@ -5052,7 +5117,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="s">
         <v>66</v>
       </c>
@@ -5066,7 +5131,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="s">
         <v>5</v>
       </c>
@@ -5080,7 +5145,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="10" t="s">
         <v>8</v>
       </c>
@@ -5094,7 +5159,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="12" t="s">
         <v>6</v>
       </c>
@@ -5108,7 +5173,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="10" t="s">
         <v>19</v>
       </c>
@@ -5122,7 +5187,7 @@
         <v>63.36</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="12" t="s">
         <v>23</v>
       </c>
@@ -5136,7 +5201,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="s">
         <v>66</v>
       </c>
@@ -5150,7 +5215,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="12" t="s">
         <v>9</v>
       </c>
@@ -5164,7 +5229,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="10" t="s">
         <v>12</v>
       </c>
@@ -5178,7 +5243,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
         <v>66</v>
       </c>
@@ -5192,7 +5257,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="10" t="s">
         <v>5</v>
       </c>
@@ -5206,7 +5271,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="12" t="s">
         <v>8</v>
       </c>
@@ -5220,7 +5285,7 @@
         <v>25.45</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="10" t="s">
         <v>6</v>
       </c>
@@ -5234,7 +5299,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="12" t="s">
         <v>19</v>
       </c>
@@ -5248,7 +5313,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="10" t="s">
         <v>23</v>
       </c>
@@ -5262,7 +5327,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="12" t="s">
         <v>66</v>
       </c>
@@ -5276,7 +5341,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="10" t="s">
         <v>9</v>
       </c>
@@ -5290,7 +5355,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="12" t="s">
         <v>12</v>
       </c>
@@ -5304,7 +5369,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="s">
         <v>66</v>
       </c>
@@ -5318,7 +5383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="12" t="s">
         <v>5</v>
       </c>
@@ -5332,7 +5397,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="10" t="s">
         <v>8</v>
       </c>
@@ -5346,7 +5411,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="12" t="s">
         <v>6</v>
       </c>
@@ -5360,7 +5425,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="10" t="s">
         <v>19</v>
       </c>
@@ -5374,7 +5439,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="12" t="s">
         <v>23</v>
       </c>
@@ -5388,7 +5453,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="s">
         <v>66</v>
       </c>
@@ -5402,7 +5467,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="12" t="s">
         <v>9</v>
       </c>
@@ -5416,7 +5481,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="10" t="s">
         <v>12</v>
       </c>
@@ -5430,7 +5495,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="12" t="s">
         <v>66</v>
       </c>
@@ -5444,7 +5509,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="10" t="s">
         <v>5</v>
       </c>
@@ -5458,7 +5523,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="12" t="s">
         <v>8</v>
       </c>
@@ -5472,7 +5537,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="10" t="s">
         <v>6</v>
       </c>
@@ -5486,7 +5551,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="12" t="s">
         <v>19</v>
       </c>
@@ -5500,7 +5565,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="10" t="s">
         <v>23</v>
       </c>
@@ -5514,7 +5579,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="12" t="s">
         <v>66</v>
       </c>
@@ -5528,7 +5593,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="10" t="s">
         <v>9</v>
       </c>
@@ -5542,7 +5607,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="12" t="s">
         <v>12</v>
       </c>
@@ -5556,7 +5621,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
         <v>66</v>
       </c>
@@ -5570,7 +5635,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="12" t="s">
         <v>5</v>
       </c>
@@ -5584,7 +5649,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="10" t="s">
         <v>8</v>
       </c>
@@ -5598,7 +5663,7 @@
         <v>24.23</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="12" t="s">
         <v>6</v>
       </c>
@@ -5612,7 +5677,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="10" t="s">
         <v>19</v>
       </c>
@@ -5626,7 +5691,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="12" t="s">
         <v>23</v>
       </c>
@@ -5640,7 +5705,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="s">
         <v>66</v>
       </c>
@@ -5654,7 +5719,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="12" t="s">
         <v>9</v>
       </c>
@@ -5668,7 +5733,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="10" t="s">
         <v>12</v>
       </c>
@@ -5682,7 +5747,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="12" t="s">
         <v>66</v>
       </c>
@@ -5696,7 +5761,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="10" t="s">
         <v>5</v>
       </c>
@@ -5710,7 +5775,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="12" t="s">
         <v>8</v>
       </c>
@@ -5724,7 +5789,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="10" t="s">
         <v>6</v>
       </c>
@@ -5738,7 +5803,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="12" t="s">
         <v>19</v>
       </c>
@@ -5752,7 +5817,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="10" t="s">
         <v>23</v>
       </c>
@@ -5766,7 +5831,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="12" t="s">
         <v>66</v>
       </c>
@@ -5780,7 +5845,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="10" t="s">
         <v>9</v>
       </c>
@@ -5794,7 +5859,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="12" t="s">
         <v>12</v>
       </c>
@@ -5808,7 +5873,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="s">
         <v>66</v>
       </c>
@@ -5822,7 +5887,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="12" t="s">
         <v>5</v>
       </c>
@@ -5836,7 +5901,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="10" t="s">
         <v>8</v>
       </c>
@@ -5850,7 +5915,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="12" t="s">
         <v>6</v>
       </c>
@@ -5864,7 +5929,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="10" t="s">
         <v>19</v>
       </c>
@@ -5878,7 +5943,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="12" t="s">
         <v>23</v>
       </c>
@@ -5892,7 +5957,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="s">
         <v>66</v>
       </c>
@@ -5906,7 +5971,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="12" t="s">
         <v>9</v>
       </c>
@@ -5920,7 +5985,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="10" t="s">
         <v>12</v>
       </c>
@@ -5934,7 +5999,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="12" t="s">
         <v>66</v>
       </c>
@@ -5948,7 +6013,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="10" t="s">
         <v>5</v>
       </c>
@@ -5962,7 +6027,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="12" t="s">
         <v>8</v>
       </c>
@@ -5976,7 +6041,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="10" t="s">
         <v>6</v>
       </c>
@@ -5990,7 +6055,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="12" t="s">
         <v>19</v>
       </c>
@@ -6004,7 +6069,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="10" t="s">
         <v>23</v>
       </c>
@@ -6018,7 +6083,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="12" t="s">
         <v>66</v>
       </c>
@@ -6032,7 +6097,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="10" t="s">
         <v>9</v>
       </c>
@@ -6046,7 +6111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="12" t="s">
         <v>12</v>
       </c>
@@ -6060,7 +6125,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="s">
         <v>66</v>
       </c>
@@ -6074,7 +6139,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="12" t="s">
         <v>5</v>
       </c>
@@ -6088,7 +6153,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="10" t="s">
         <v>8</v>
       </c>
@@ -6102,7 +6167,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="12" t="s">
         <v>6</v>
       </c>
@@ -6116,7 +6181,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="10" t="s">
         <v>19</v>
       </c>
@@ -6130,7 +6195,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="12" t="s">
         <v>23</v>
       </c>
@@ -6144,7 +6209,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="s">
         <v>66</v>
       </c>
@@ -6158,7 +6223,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="12" t="s">
         <v>9</v>
       </c>
@@ -6172,7 +6237,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="10" t="s">
         <v>12</v>
       </c>
@@ -6186,7 +6251,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="12" t="s">
         <v>66</v>
       </c>
@@ -6200,7 +6265,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="10" t="s">
         <v>5</v>
       </c>
@@ -6214,7 +6279,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="12" t="s">
         <v>8</v>
       </c>
@@ -6228,7 +6293,7 @@
         <v>25.52</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="10" t="s">
         <v>6</v>
       </c>
@@ -6242,7 +6307,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="12" t="s">
         <v>19</v>
       </c>
@@ -6256,7 +6321,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="10" t="s">
         <v>23</v>
       </c>
@@ -6270,7 +6335,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
         <v>66</v>
       </c>
@@ -6284,7 +6349,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="10" t="s">
         <v>9</v>
       </c>
@@ -6298,7 +6363,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="12" t="s">
         <v>12</v>
       </c>
@@ -6312,7 +6377,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="s">
         <v>66</v>
       </c>
@@ -6326,7 +6391,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="12" t="s">
         <v>5</v>
       </c>
@@ -6340,7 +6405,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="10" t="s">
         <v>8</v>
       </c>
@@ -6354,7 +6419,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="12" t="s">
         <v>6</v>
       </c>
@@ -6368,7 +6433,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="10" t="s">
         <v>19</v>
       </c>
@@ -6382,7 +6447,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="12" t="s">
         <v>23</v>
       </c>
@@ -6396,7 +6461,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="s">
         <v>66</v>
       </c>
@@ -6410,7 +6475,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="12" t="s">
         <v>9</v>
       </c>
@@ -6424,7 +6489,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="10" t="s">
         <v>12</v>
       </c>
@@ -6438,7 +6503,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="12" t="s">
         <v>66</v>
       </c>
@@ -6452,7 +6517,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="10" t="s">
         <v>5</v>
       </c>
@@ -6466,7 +6531,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="12" t="s">
         <v>8</v>
       </c>
@@ -6480,7 +6545,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="10" t="s">
         <v>6</v>
       </c>
@@ -6494,7 +6559,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="12" t="s">
         <v>19</v>
       </c>
@@ -6508,7 +6573,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="10" t="s">
         <v>23</v>
       </c>
@@ -6522,7 +6587,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="12" t="s">
         <v>66</v>
       </c>
@@ -6536,7 +6601,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="10" t="s">
         <v>9</v>
       </c>
@@ -6550,7 +6615,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="12" t="s">
         <v>12</v>
       </c>
@@ -6564,7 +6629,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="10" t="s">
         <v>66</v>
       </c>
@@ -6578,7 +6643,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="12" t="s">
         <v>5</v>
       </c>
@@ -6592,7 +6657,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="10" t="s">
         <v>8</v>
       </c>
@@ -6606,7 +6671,7 @@
         <v>22.55</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="12" t="s">
         <v>6</v>
       </c>
@@ -6620,7 +6685,7 @@
         <v>23.89</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="10" t="s">
         <v>19</v>
       </c>
@@ -6634,7 +6699,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="12" t="s">
         <v>23</v>
       </c>
@@ -6648,7 +6713,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="10" t="s">
         <v>66</v>
       </c>
@@ -6662,7 +6727,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="12" t="s">
         <v>9</v>
       </c>
@@ -6676,7 +6741,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="10" t="s">
         <v>12</v>
       </c>
@@ -6690,7 +6755,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="12" t="s">
         <v>66</v>
       </c>
@@ -6704,7 +6769,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="10" t="s">
         <v>5</v>
       </c>
@@ -6718,7 +6783,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="12" t="s">
         <v>8</v>
       </c>
@@ -6732,7 +6797,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="10" t="s">
         <v>6</v>
       </c>
@@ -6746,7 +6811,7 @@
         <v>23.98</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="12" t="s">
         <v>19</v>
       </c>
@@ -6760,7 +6825,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="10" t="s">
         <v>23</v>
       </c>
@@ -6774,7 +6839,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
         <v>66</v>
       </c>
@@ -6788,7 +6853,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="10" t="s">
         <v>9</v>
       </c>
@@ -6802,7 +6867,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="12" t="s">
         <v>12</v>
       </c>
@@ -6816,7 +6881,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="10" t="s">
         <v>66</v>
       </c>
@@ -6830,7 +6895,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="12" t="s">
         <v>5</v>
       </c>
@@ -6844,7 +6909,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="10" t="s">
         <v>8</v>
       </c>
@@ -6858,7 +6923,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="12" t="s">
         <v>6</v>
       </c>
@@ -6872,7 +6937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="10" t="s">
         <v>19</v>
       </c>
@@ -6886,7 +6951,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="12" t="s">
         <v>23</v>
       </c>
@@ -6900,7 +6965,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="10" t="s">
         <v>66</v>
       </c>
@@ -6914,7 +6979,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="12" t="s">
         <v>9</v>
       </c>
@@ -6928,7 +6993,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="10" t="s">
         <v>12</v>
       </c>
@@ -6942,7 +7007,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="12" t="s">
         <v>66</v>
       </c>
@@ -6956,7 +7021,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="10" t="s">
         <v>5</v>
       </c>
@@ -6970,7 +7035,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="12" t="s">
         <v>8</v>
       </c>
@@ -6984,7 +7049,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="10" t="s">
         <v>6</v>
       </c>
@@ -6998,7 +7063,7 @@
         <v>24.14</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="12" t="s">
         <v>19</v>
       </c>
@@ -7012,7 +7077,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="10" t="s">
         <v>23</v>
       </c>
@@ -7026,7 +7091,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="12" t="s">
         <v>66</v>
       </c>
@@ -7040,7 +7105,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="10" t="s">
         <v>9</v>
       </c>
@@ -7054,7 +7119,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="12" t="s">
         <v>12</v>
       </c>
@@ -7068,7 +7133,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="10" t="s">
         <v>66</v>
       </c>
@@ -7082,7 +7147,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="12" t="s">
         <v>5</v>
       </c>
@@ -7096,7 +7161,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="10" t="s">
         <v>8</v>
       </c>
@@ -7110,7 +7175,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="12" t="s">
         <v>6</v>
       </c>
@@ -7124,7 +7189,7 @@
         <v>24.23</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="10" t="s">
         <v>19</v>
       </c>
@@ -7138,7 +7203,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="12" t="s">
         <v>23</v>
       </c>
@@ -7152,7 +7217,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="10" t="s">
         <v>66</v>
       </c>
@@ -7166,7 +7231,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="12" t="s">
         <v>9</v>
       </c>
@@ -7180,7 +7245,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="10" t="s">
         <v>12</v>
       </c>
@@ -7194,7 +7259,7 @@
         <v>17.54</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="12" t="s">
         <v>66</v>
       </c>
@@ -7208,7 +7273,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="10" t="s">
         <v>5</v>
       </c>
@@ -7222,7 +7287,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="12" t="s">
         <v>8</v>
       </c>
@@ -7236,7 +7301,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="10" t="s">
         <v>6</v>
       </c>
@@ -7250,7 +7315,7 @@
         <v>24.26</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="12" t="s">
         <v>19</v>
       </c>
@@ -7264,7 +7329,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="10" t="s">
         <v>23</v>
       </c>
@@ -7278,7 +7343,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="12" t="s">
         <v>66</v>
       </c>
@@ -7292,7 +7357,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="10" t="s">
         <v>9</v>
       </c>
@@ -7306,7 +7371,7 @@
         <v>14.61</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="12" t="s">
         <v>12</v>
       </c>
@@ -7320,7 +7385,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="10" t="s">
         <v>66</v>
       </c>
@@ -7334,7 +7399,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="12" t="s">
         <v>5</v>
       </c>
@@ -7348,7 +7413,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="10" t="s">
         <v>8</v>
       </c>
@@ -7362,7 +7427,7 @@
         <v>17.79</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="12" t="s">
         <v>6</v>
       </c>
@@ -7376,7 +7441,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="10" t="s">
         <v>19</v>
       </c>
@@ -7390,7 +7455,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="12" t="s">
         <v>23</v>
       </c>
@@ -7404,7 +7469,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="10" t="s">
         <v>66</v>
       </c>
@@ -7418,7 +7483,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="12" t="s">
         <v>9</v>
       </c>
@@ -7432,7 +7497,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="10" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7511,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="12" t="s">
         <v>66</v>
       </c>
@@ -7460,7 +7525,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="10" t="s">
         <v>5</v>
       </c>
@@ -7474,7 +7539,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="12" t="s">
         <v>8</v>
       </c>
@@ -7488,7 +7553,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="10" t="s">
         <v>6</v>
       </c>
@@ -7502,7 +7567,7 @@
         <v>24.14</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="12" t="s">
         <v>19</v>
       </c>
@@ -7516,7 +7581,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="10" t="s">
         <v>23</v>
       </c>
@@ -7530,7 +7595,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="12" t="s">
         <v>66</v>
       </c>
@@ -7544,7 +7609,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="10" t="s">
         <v>9</v>
       </c>
@@ -7558,7 +7623,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="12" t="s">
         <v>12</v>
       </c>
@@ -7572,7 +7637,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="10" t="s">
         <v>66</v>
       </c>
@@ -7586,7 +7651,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="12" t="s">
         <v>5</v>
       </c>
@@ -7600,7 +7665,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="10" t="s">
         <v>8</v>
       </c>
@@ -7614,7 +7679,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="12" t="s">
         <v>6</v>
       </c>
@@ -7628,7 +7693,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="10" t="s">
         <v>19</v>
       </c>
@@ -7642,7 +7707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="12" t="s">
         <v>23</v>
       </c>
@@ -7656,7 +7721,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="10" t="s">
         <v>66</v>
       </c>
@@ -7670,7 +7735,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="12" t="s">
         <v>9</v>
       </c>
@@ -7684,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="10" t="s">
         <v>12</v>
       </c>
@@ -7698,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="12" t="s">
         <v>66</v>
       </c>
@@ -7712,7 +7777,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="10" t="s">
         <v>5</v>
       </c>
@@ -7726,7 +7791,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="12" t="s">
         <v>8</v>
       </c>
@@ -7740,7 +7805,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="10" t="s">
         <v>6</v>
       </c>
@@ -7754,7 +7819,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="12" t="s">
         <v>19</v>
       </c>
@@ -7768,7 +7833,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="10" t="s">
         <v>23</v>
       </c>
@@ -7782,7 +7847,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="12" t="s">
         <v>66</v>
       </c>
@@ -7796,7 +7861,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="10" t="s">
         <v>9</v>
       </c>
@@ -7810,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="12" t="s">
         <v>12</v>
       </c>
@@ -7824,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="10" t="s">
         <v>66</v>
       </c>
@@ -7838,7 +7903,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="12" t="s">
         <v>5</v>
       </c>
@@ -7852,7 +7917,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="10" t="s">
         <v>8</v>
       </c>
@@ -7866,7 +7931,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="12" t="s">
         <v>6</v>
       </c>
@@ -7880,7 +7945,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="10" t="s">
         <v>19</v>
       </c>
@@ -7894,7 +7959,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="12" t="s">
         <v>23</v>
       </c>
@@ -7908,7 +7973,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="10" t="s">
         <v>66</v>
       </c>
@@ -7922,7 +7987,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="12" t="s">
         <v>9</v>
       </c>
@@ -7936,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="10" t="s">
         <v>12</v>
       </c>
@@ -7950,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="12" t="s">
         <v>66</v>
       </c>
@@ -7964,7 +8029,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="10" t="s">
         <v>5</v>
       </c>
@@ -7978,7 +8043,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="12" t="s">
         <v>8</v>
       </c>
@@ -7992,7 +8057,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="10" t="s">
         <v>6</v>
       </c>
@@ -8006,7 +8071,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="12" t="s">
         <v>19</v>
       </c>
@@ -8020,7 +8085,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="10" t="s">
         <v>23</v>
       </c>
@@ -8034,7 +8099,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="12" t="s">
         <v>66</v>
       </c>
@@ -8048,7 +8113,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="10" t="s">
         <v>9</v>
       </c>
@@ -8062,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="12" t="s">
         <v>12</v>
       </c>
@@ -8076,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="10" t="s">
         <v>66</v>
       </c>
@@ -8090,7 +8155,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="12" t="s">
         <v>5</v>
       </c>
@@ -8104,7 +8169,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="10" t="s">
         <v>8</v>
       </c>
@@ -8118,7 +8183,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="12" t="s">
         <v>6</v>
       </c>
@@ -8132,7 +8197,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="10" t="s">
         <v>19</v>
       </c>
@@ -8146,7 +8211,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="12" t="s">
         <v>23</v>
       </c>
@@ -8160,7 +8225,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="10" t="s">
         <v>66</v>
       </c>
@@ -8174,7 +8239,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="12" t="s">
         <v>9</v>
       </c>
@@ -8188,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="10" t="s">
         <v>12</v>
       </c>
@@ -8202,7 +8267,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
         <v>66</v>
       </c>
@@ -8216,7 +8281,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="10" t="s">
         <v>5</v>
       </c>
@@ -8230,7 +8295,7 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="12" t="s">
         <v>8</v>
       </c>
@@ -8244,7 +8309,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="10" t="s">
         <v>6</v>
       </c>
@@ -8258,7 +8323,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="12" t="s">
         <v>19</v>
       </c>
@@ -8272,7 +8337,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="10" t="s">
         <v>23</v>
       </c>
@@ -8286,7 +8351,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="12" t="s">
         <v>66</v>
       </c>
@@ -8300,7 +8365,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="10" t="s">
         <v>9</v>
       </c>
@@ -8314,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="12" t="s">
         <v>12</v>
       </c>
@@ -8328,7 +8393,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="10" t="s">
         <v>66</v>
       </c>
@@ -8342,7 +8407,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="12" t="s">
         <v>5</v>
       </c>
@@ -8356,7 +8421,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="10" t="s">
         <v>8</v>
       </c>
@@ -8370,7 +8435,7 @@
         <v>9.4700000000000006</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="12" t="s">
         <v>6</v>
       </c>
@@ -8384,7 +8449,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="10" t="s">
         <v>19</v>
       </c>
@@ -8398,7 +8463,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="12" t="s">
         <v>23</v>
       </c>
@@ -8412,7 +8477,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="10" t="s">
         <v>66</v>
       </c>
@@ -8426,7 +8491,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="12" t="s">
         <v>9</v>
       </c>
@@ -8440,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="10" t="s">
         <v>12</v>
       </c>
@@ -8454,7 +8519,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="12" t="s">
         <v>66</v>
       </c>
@@ -8468,7 +8533,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="10" t="s">
         <v>5</v>
       </c>
@@ -8482,7 +8547,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="12" t="s">
         <v>8</v>
       </c>
@@ -8496,7 +8561,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="10" t="s">
         <v>6</v>
       </c>
@@ -8510,7 +8575,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="12" t="s">
         <v>19</v>
       </c>
@@ -8524,7 +8589,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="10" t="s">
         <v>23</v>
       </c>
@@ -8538,7 +8603,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="12" t="s">
         <v>66</v>
       </c>
@@ -8552,7 +8617,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="10" t="s">
         <v>9</v>
       </c>
@@ -8566,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="12" t="s">
         <v>12</v>
       </c>
@@ -8580,7 +8645,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="10" t="s">
         <v>66</v>
       </c>
@@ -8594,7 +8659,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="12" t="s">
         <v>5</v>
       </c>
@@ -8608,7 +8673,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="10" t="s">
         <v>8</v>
       </c>
@@ -8622,7 +8687,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="12" t="s">
         <v>6</v>
       </c>
@@ -8636,7 +8701,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="10" t="s">
         <v>19</v>
       </c>
@@ -8650,7 +8715,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="12" t="s">
         <v>23</v>
       </c>
@@ -8664,7 +8729,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="10" t="s">
         <v>66</v>
       </c>
@@ -8678,7 +8743,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="12" t="s">
         <v>9</v>
       </c>
@@ -8692,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="10" t="s">
         <v>12</v>
       </c>
@@ -8706,7 +8771,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="12" t="s">
         <v>66</v>
       </c>
@@ -8720,7 +8785,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="10" t="s">
         <v>5</v>
       </c>
@@ -8734,7 +8799,7 @@
         <v>20.94</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="12" t="s">
         <v>8</v>
       </c>
@@ -8748,7 +8813,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="10" t="s">
         <v>6</v>
       </c>
@@ -8762,7 +8827,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="12" t="s">
         <v>19</v>
       </c>
@@ -8776,7 +8841,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="10" t="s">
         <v>23</v>
       </c>
@@ -8790,7 +8855,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="12" t="s">
         <v>66</v>
       </c>
@@ -8804,7 +8869,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="10" t="s">
         <v>9</v>
       </c>
@@ -8818,7 +8883,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="12" t="s">
         <v>12</v>
       </c>
@@ -8832,7 +8897,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="10" t="s">
         <v>66</v>
       </c>
@@ -8846,7 +8911,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="12" t="s">
         <v>5</v>
       </c>
@@ -8860,7 +8925,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="10" t="s">
         <v>8</v>
       </c>
@@ -8874,7 +8939,7 @@
         <v>10.34</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="12" t="s">
         <v>6</v>
       </c>
@@ -8888,7 +8953,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="10" t="s">
         <v>19</v>
       </c>
@@ -8902,7 +8967,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="12" t="s">
         <v>23</v>
       </c>
@@ -8916,7 +8981,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="10" t="s">
         <v>66</v>
       </c>
@@ -8930,7 +8995,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="12" t="s">
         <v>9</v>
       </c>
@@ -8944,7 +9009,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="10" t="s">
         <v>12</v>
       </c>
@@ -8958,7 +9023,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="12" t="s">
         <v>66</v>
       </c>
@@ -8972,7 +9037,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="10" t="s">
         <v>5</v>
       </c>
@@ -8986,7 +9051,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="12" t="s">
         <v>8</v>
       </c>
@@ -9000,7 +9065,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="10" t="s">
         <v>6</v>
       </c>
@@ -9014,7 +9079,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="12" t="s">
         <v>19</v>
       </c>
@@ -9028,7 +9093,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="10" t="s">
         <v>23</v>
       </c>
@@ -9042,7 +9107,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
         <v>66</v>
       </c>
@@ -9056,7 +9121,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="10" t="s">
         <v>9</v>
       </c>
@@ -9070,7 +9135,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="12" t="s">
         <v>12</v>
       </c>
@@ -9084,7 +9149,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="10" t="s">
         <v>66</v>
       </c>
@@ -9098,7 +9163,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="12" t="s">
         <v>5</v>
       </c>
@@ -9112,7 +9177,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="10" t="s">
         <v>8</v>
       </c>
@@ -9126,7 +9191,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="12" t="s">
         <v>6</v>
       </c>
@@ -9140,7 +9205,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="10" t="s">
         <v>19</v>
       </c>
@@ -9154,7 +9219,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="12" t="s">
         <v>23</v>
       </c>
@@ -9168,7 +9233,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="10" t="s">
         <v>66</v>
       </c>
@@ -9182,7 +9247,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="12" t="s">
         <v>9</v>
       </c>
@@ -9196,7 +9261,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="10" t="s">
         <v>12</v>
       </c>
@@ -9210,7 +9275,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="12" t="s">
         <v>66</v>
       </c>
@@ -9224,7 +9289,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="10" t="s">
         <v>5</v>
       </c>
@@ -9238,7 +9303,7 @@
         <v>23.03</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="12" t="s">
         <v>8</v>
       </c>
@@ -9252,7 +9317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="10" t="s">
         <v>6</v>
       </c>
@@ -9266,7 +9331,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="12" t="s">
         <v>19</v>
       </c>
@@ -9280,7 +9345,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="10" t="s">
         <v>23</v>
       </c>
@@ -9294,7 +9359,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="12" t="s">
         <v>66</v>
       </c>
@@ -9308,7 +9373,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="10" t="s">
         <v>9</v>
       </c>
@@ -9322,7 +9387,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="12" t="s">
         <v>12</v>
       </c>
@@ -9336,7 +9401,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="10" t="s">
         <v>66</v>
       </c>
@@ -9350,7 +9415,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="12" t="s">
         <v>5</v>
       </c>
@@ -9364,7 +9429,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="10" t="s">
         <v>8</v>
       </c>
@@ -9378,7 +9443,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="12" t="s">
         <v>6</v>
       </c>
@@ -9392,7 +9457,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="10" t="s">
         <v>19</v>
       </c>
@@ -9406,7 +9471,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="12" t="s">
         <v>23</v>
       </c>
@@ -9420,7 +9485,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="10" t="s">
         <v>66</v>
       </c>
@@ -9434,7 +9499,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="12" t="s">
         <v>9</v>
       </c>
@@ -9448,7 +9513,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="10" t="s">
         <v>12</v>
       </c>
@@ -9462,7 +9527,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="12" t="s">
         <v>66</v>
       </c>
@@ -9476,7 +9541,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="10" t="s">
         <v>5</v>
       </c>
@@ -9490,7 +9555,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="12" t="s">
         <v>8</v>
       </c>
@@ -9504,7 +9569,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="10" t="s">
         <v>6</v>
       </c>
@@ -9518,7 +9583,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="12" t="s">
         <v>19</v>
       </c>
@@ -9532,7 +9597,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="10" t="s">
         <v>23</v>
       </c>
@@ -9546,7 +9611,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="12" t="s">
         <v>66</v>
       </c>
@@ -9560,7 +9625,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="10" t="s">
         <v>9</v>
       </c>
@@ -9574,7 +9639,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="12" t="s">
         <v>12</v>
       </c>
@@ -9588,7 +9653,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="10" t="s">
         <v>66</v>
       </c>
@@ -9602,7 +9667,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="12" t="s">
         <v>5</v>
       </c>
@@ -9616,7 +9681,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="10" t="s">
         <v>8</v>
       </c>
@@ -9630,7 +9695,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="12" t="s">
         <v>6</v>
       </c>
@@ -9644,7 +9709,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="10" t="s">
         <v>19</v>
       </c>
@@ -9658,7 +9723,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="12" t="s">
         <v>23</v>
       </c>
@@ -9672,7 +9737,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="10" t="s">
         <v>66</v>
       </c>
@@ -9686,7 +9751,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="12" t="s">
         <v>9</v>
       </c>
@@ -9700,7 +9765,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="10" t="s">
         <v>12</v>
       </c>
@@ -9714,7 +9779,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="12" t="s">
         <v>66</v>
       </c>
@@ -9728,7 +9793,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="10" t="s">
         <v>5</v>
       </c>
@@ -9742,7 +9807,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="12" t="s">
         <v>8</v>
       </c>
@@ -9756,7 +9821,7 @@
         <v>17.62</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="10" t="s">
         <v>6</v>
       </c>
@@ -9770,7 +9835,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="12" t="s">
         <v>19</v>
       </c>
@@ -9784,7 +9849,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="10" t="s">
         <v>23</v>
       </c>
@@ -9798,7 +9863,7 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="12" t="s">
         <v>66</v>
       </c>
@@ -9812,7 +9877,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="10" t="s">
         <v>9</v>
       </c>
@@ -9826,7 +9891,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="12" t="s">
         <v>12</v>
       </c>
@@ -9840,7 +9905,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="10" t="s">
         <v>66</v>
       </c>
@@ -9854,7 +9919,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="12" t="s">
         <v>5</v>
       </c>
@@ -9868,7 +9933,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="10" t="s">
         <v>8</v>
       </c>
@@ -9882,7 +9947,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="12" t="s">
         <v>6</v>
       </c>
@@ -9896,7 +9961,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="10" t="s">
         <v>19</v>
       </c>
@@ -9910,7 +9975,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="12" t="s">
         <v>23</v>
       </c>
@@ -9924,7 +9989,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="10" t="s">
         <v>66</v>
       </c>
@@ -9938,7 +10003,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="12" t="s">
         <v>9</v>
       </c>
@@ -9952,7 +10017,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="10" t="s">
         <v>12</v>
       </c>
@@ -9966,7 +10031,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="12" t="s">
         <v>66</v>
       </c>
@@ -9980,7 +10045,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="10" t="s">
         <v>5</v>
       </c>
@@ -9994,7 +10059,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="12" t="s">
         <v>8</v>
       </c>
@@ -10008,7 +10073,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="10" t="s">
         <v>6</v>
       </c>
@@ -10022,7 +10087,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="12" t="s">
         <v>19</v>
       </c>
@@ -10036,7 +10101,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="10" t="s">
         <v>23</v>
       </c>
@@ -10050,7 +10115,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="12" t="s">
         <v>66</v>
       </c>
@@ -10064,7 +10129,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="10" t="s">
         <v>9</v>
       </c>
@@ -10078,7 +10143,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="12" t="s">
         <v>12</v>
       </c>
@@ -10092,7 +10157,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="10" t="s">
         <v>66</v>
       </c>
@@ -10106,7 +10171,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="12" t="s">
         <v>5</v>
       </c>
@@ -10120,7 +10185,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="10" t="s">
         <v>8</v>
       </c>
@@ -10134,7 +10199,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="12" t="s">
         <v>6</v>
       </c>
@@ -10148,7 +10213,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="10" t="s">
         <v>19</v>
       </c>
@@ -10162,7 +10227,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="12" t="s">
         <v>23</v>
       </c>
@@ -10176,7 +10241,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="10" t="s">
         <v>66</v>
       </c>
@@ -10190,7 +10255,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="12" t="s">
         <v>9</v>
       </c>
@@ -10204,7 +10269,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="10" t="s">
         <v>12</v>
       </c>
@@ -10218,7 +10283,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="12" t="s">
         <v>66</v>
       </c>
@@ -10232,7 +10297,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="10" t="s">
         <v>5</v>
       </c>
@@ -10246,7 +10311,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="12" t="s">
         <v>8</v>
       </c>
@@ -10260,7 +10325,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627" s="10" t="s">
         <v>6</v>
       </c>
@@ -10274,7 +10339,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" s="12" t="s">
         <v>19</v>
       </c>
@@ -10288,7 +10353,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" s="10" t="s">
         <v>23</v>
       </c>
@@ -10302,7 +10367,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="12" t="s">
         <v>66</v>
       </c>
@@ -10316,7 +10381,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" s="10" t="s">
         <v>9</v>
       </c>
@@ -10330,7 +10395,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="12" t="s">
         <v>12</v>
       </c>
@@ -10344,7 +10409,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="10" t="s">
         <v>66</v>
       </c>
@@ -10358,7 +10423,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" s="12" t="s">
         <v>5</v>
       </c>
@@ -10372,7 +10437,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" s="10" t="s">
         <v>8</v>
       </c>
@@ -10386,7 +10451,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" s="12" t="s">
         <v>6</v>
       </c>
@@ -10400,7 +10465,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" s="10" t="s">
         <v>19</v>
       </c>
@@ -10414,7 +10479,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638" s="12" t="s">
         <v>23</v>
       </c>
@@ -10428,7 +10493,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="10" t="s">
         <v>66</v>
       </c>
@@ -10442,7 +10507,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" s="12" t="s">
         <v>9</v>
       </c>
@@ -10456,7 +10521,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="10" t="s">
         <v>12</v>
       </c>
@@ -10470,7 +10535,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="12" t="s">
         <v>66</v>
       </c>
@@ -10484,7 +10549,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" s="10" t="s">
         <v>5</v>
       </c>
@@ -10498,7 +10563,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" s="12" t="s">
         <v>8</v>
       </c>
@@ -10512,7 +10577,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" s="10" t="s">
         <v>6</v>
       </c>
@@ -10526,7 +10591,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" s="12" t="s">
         <v>19</v>
       </c>
@@ -10540,7 +10605,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" s="10" t="s">
         <v>23</v>
       </c>
@@ -10554,7 +10619,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="12" t="s">
         <v>66</v>
       </c>
@@ -10568,7 +10633,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" s="10" t="s">
         <v>9</v>
       </c>
@@ -10582,7 +10647,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="12" t="s">
         <v>12</v>
       </c>
@@ -10596,7 +10661,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="10" t="s">
         <v>74</v>
       </c>
@@ -10610,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="12" t="s">
         <v>73</v>
       </c>
@@ -10624,7 +10689,7 @@
         <v>69.48</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="10" t="s">
         <v>74</v>
       </c>
@@ -10638,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="12" t="s">
         <v>73</v>
       </c>
@@ -10652,7 +10717,7 @@
         <v>68.39</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="10" t="s">
         <v>74</v>
       </c>
@@ -10666,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="12" t="s">
         <v>73</v>
       </c>
@@ -10680,7 +10745,7 @@
         <v>77.03</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="10" t="s">
         <v>74</v>
       </c>
@@ -10694,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="12" t="s">
         <v>73</v>
       </c>
@@ -10708,7 +10773,7 @@
         <v>66.41</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="10" t="s">
         <v>74</v>
       </c>
@@ -10722,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="12" t="s">
         <v>73</v>
       </c>
@@ -10736,7 +10801,7 @@
         <v>61.91</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="10" t="s">
         <v>74</v>
       </c>
@@ -10750,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="12" t="s">
         <v>73</v>
       </c>
@@ -10764,7 +10829,7 @@
         <v>60.33</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="10" t="s">
         <v>74</v>
       </c>
@@ -10778,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="12" t="s">
         <v>73</v>
       </c>
@@ -10792,7 +10857,7 @@
         <v>63.34</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="10" t="s">
         <v>74</v>
       </c>
@@ -10806,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="12" t="s">
         <v>73</v>
       </c>
@@ -10820,7 +10885,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="10" t="s">
         <v>74</v>
       </c>
@@ -10834,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="12" t="s">
         <v>73</v>
       </c>
@@ -10848,7 +10913,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="10" t="s">
         <v>74</v>
       </c>
@@ -10862,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="12" t="s">
         <v>73</v>
       </c>
@@ -10876,7 +10941,7 @@
         <v>25.93</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="10" t="s">
         <v>74</v>
       </c>
@@ -10890,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="12" t="s">
         <v>73</v>
       </c>
@@ -10904,7 +10969,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="10" t="s">
         <v>74</v>
       </c>
@@ -10918,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="12" t="s">
         <v>73</v>
       </c>
@@ -10932,7 +10997,7 @@
         <v>56.41</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="10" t="s">
         <v>74</v>
       </c>
@@ -10946,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="12" t="s">
         <v>73</v>
       </c>
@@ -10960,7 +11025,7 @@
         <v>44.52</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="10" t="s">
         <v>74</v>
       </c>
@@ -10974,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="12" t="s">
         <v>73</v>
       </c>
@@ -10988,7 +11053,7 @@
         <v>48.46</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="10" t="s">
         <v>74</v>
       </c>
@@ -11002,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="12" t="s">
         <v>73</v>
       </c>
@@ -11016,7 +11081,7 @@
         <v>67.19</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="10" t="s">
         <v>74</v>
       </c>
@@ -11030,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="12" t="s">
         <v>73</v>
       </c>
@@ -11044,7 +11109,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="10" t="s">
         <v>74</v>
       </c>
@@ -11058,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="12" t="s">
         <v>73</v>
       </c>
@@ -11072,7 +11137,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="10" t="s">
         <v>74</v>
       </c>
@@ -11086,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="12" t="s">
         <v>73</v>
       </c>
@@ -11100,7 +11165,7 @@
         <v>40.130000000000003</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="10" t="s">
         <v>74</v>
       </c>
@@ -11114,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="12" t="s">
         <v>73</v>
       </c>
@@ -11128,7 +11193,7 @@
         <v>62.97</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="10" t="s">
         <v>74</v>
       </c>
@@ -11142,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="12" t="s">
         <v>73</v>
       </c>
@@ -11156,7 +11221,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="10" t="s">
         <v>74</v>
       </c>
@@ -11170,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="12" t="s">
         <v>73</v>
       </c>
@@ -11184,7 +11249,7 @@
         <v>45.04</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="10" t="s">
         <v>74</v>
       </c>
@@ -11198,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="12" t="s">
         <v>73</v>
       </c>
@@ -11212,7 +11277,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="10" t="s">
         <v>74</v>
       </c>
@@ -11226,7 +11291,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="12" t="s">
         <v>73</v>
       </c>
@@ -11240,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="10" t="s">
         <v>74</v>
       </c>
@@ -11254,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="12" t="s">
         <v>73</v>
       </c>
